--- a/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.2626678363837</v>
+        <v>21.26266783638364</v>
       </c>
       <c r="C2">
-        <v>21.85283448092232</v>
+        <v>21.85283448092224</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.44394762999312</v>
+        <v>10.44394762999315</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>34.88087488048291</v>
+        <v>34.88087488048303</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.31372533793283</v>
+        <v>19.31372533793276</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7002131823214</v>
+        <v>19.70021318232149</v>
       </c>
       <c r="C3">
-        <v>20.21368925027673</v>
+        <v>20.21368925027667</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.855964455793432</v>
+        <v>9.855964455793465</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.01399238695658</v>
+        <v>33.0139923869565</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.9144140406929</v>
+        <v>17.91441404069295</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69816611527344</v>
+        <v>18.69816611527348</v>
       </c>
       <c r="C4">
-        <v>19.16510358542354</v>
+        <v>19.16510358542351</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31.85476854693812</v>
+        <v>31.85476854693799</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.01839878075946</v>
+        <v>17.01839878075942</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.27873240337544</v>
+        <v>18.27873240337538</v>
       </c>
       <c r="C5">
-        <v>18.72680791006014</v>
+        <v>18.72680791006001</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.341630393920926</v>
+        <v>9.341630393920862</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.37916538362462</v>
+        <v>31.37916538362486</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.64368084635147</v>
+        <v>16.64368084635148</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.20840611172166</v>
+        <v>18.20840611172155</v>
       </c>
       <c r="C6">
-        <v>18.65335494853207</v>
+        <v>18.65335494853205</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.316744003361242</v>
+        <v>9.316744003361183</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.30000167138968</v>
+        <v>31.30000167138956</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.58087156323638</v>
+        <v>16.58087156323634</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.69255483973997</v>
+        <v>18.69255483973989</v>
       </c>
       <c r="C7">
-        <v>19.15923755473782</v>
+        <v>19.15923755473805</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.489172997138775</v>
+        <v>9.489172997138782</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31.84836724305164</v>
+        <v>31.84836724305148</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.01338441234564</v>
+        <v>17.01338441234559</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73256879746528</v>
+        <v>20.73256879746535</v>
       </c>
       <c r="C8">
-        <v>21.29615442605778</v>
+        <v>21.29615442605776</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.24199840999571</v>
+        <v>10.2419984099957</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.23984975359424</v>
+        <v>34.23984975359428</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.83868166318554</v>
+        <v>18.83868166318557</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.41252858407691</v>
+        <v>24.41252858407674</v>
       </c>
       <c r="C9">
-        <v>25.17259658470836</v>
+        <v>25.17259658470821</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.68948417126089</v>
+        <v>11.68948417126086</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.83209904429506</v>
+        <v>38.83209904429462</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.1425643385807</v>
+        <v>22.1425643385806</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.95057259025553</v>
+        <v>26.95057259025566</v>
       </c>
       <c r="C10">
-        <v>27.86272402193229</v>
+        <v>27.86272402193234</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.74109338749038</v>
+        <v>12.7410933874904</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.16618274145841</v>
+        <v>42.1661827414583</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.42946494421416</v>
+        <v>24.42946494421425</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.07748205648622</v>
+        <v>28.0774820564865</v>
       </c>
       <c r="C11">
-        <v>29.06165123949604</v>
+        <v>29.06165123949613</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.23679801323303</v>
+        <v>13.23679801323306</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.682554190132</v>
+        <v>43.68255419013234</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.4470146369546</v>
+        <v>25.44701463695472</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.50109392633057</v>
+        <v>28.50109392633069</v>
       </c>
       <c r="C12">
-        <v>29.51306834641626</v>
+        <v>29.51306834641623</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.44467025634946</v>
+        <v>13.44467025634954</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44.25773660534211</v>
+        <v>44.25773660534226</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.82986117429405</v>
+        <v>25.82986117429414</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.40998496141617</v>
+        <v>28.40998496141611</v>
       </c>
       <c r="C13">
-        <v>29.41594494756866</v>
+        <v>29.41594494756862</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.39994053285219</v>
+        <v>13.39994053285213</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44.13379831564508</v>
+        <v>44.13379831564485</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.74750397998728</v>
+        <v>25.74750397998725</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.11238995000218</v>
+        <v>28.11238995000217</v>
       </c>
       <c r="C14">
-        <v>29.09883515813461</v>
+        <v>29.09883515813453</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.25391826340817</v>
+        <v>13.25391826340814</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.7298485208335</v>
+        <v>43.72984852083344</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.47855613318141</v>
+        <v>25.47855613318139</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.92972588197664</v>
+        <v>27.92972588197683</v>
       </c>
       <c r="C15">
-        <v>28.90429149137032</v>
+        <v>28.90429149137043</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.16435137372934</v>
+        <v>13.16435137372937</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.48257872153262</v>
+        <v>43.48257872153255</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.31352169576132</v>
+        <v>25.31352169576144</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8764388712609</v>
+        <v>26.87643887126092</v>
       </c>
       <c r="C16">
-        <v>27.78395091526434</v>
+        <v>27.78395091526442</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.70985206958402</v>
+        <v>12.70985206958404</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.06715738750373</v>
+        <v>42.06715738750368</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.3625719117929</v>
+        <v>24.36257191179289</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.22375201352197</v>
+        <v>26.22375201352198</v>
       </c>
       <c r="C17">
-        <v>27.09093549239774</v>
+        <v>27.09093549239769</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,13 +994,13 @@
         <v>12.4361019104031</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.19938615249303</v>
+        <v>41.19938615249313</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.77388029313632</v>
+        <v>23.77388029313633</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.84568045466121</v>
+        <v>25.84568045466117</v>
       </c>
       <c r="C18">
-        <v>26.68992569434292</v>
+        <v>26.68992569434285</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>12.27863060139587</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.70015993215793</v>
+        <v>40.70015993215814</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.43308086623096</v>
+        <v>23.43308086623094</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.71719121271666</v>
+        <v>25.71719121271661</v>
       </c>
       <c r="C19">
-        <v>26.55371084364726</v>
+        <v>26.55371084364711</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.22530209985557</v>
+        <v>12.22530209985559</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.5310861661237</v>
+        <v>40.53108616612345</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.31729253386761</v>
+        <v>23.31729253386754</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.29350165322254</v>
+        <v>26.29350165322247</v>
       </c>
       <c r="C20">
-        <v>27.1649506877101</v>
+        <v>27.16495068770988</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.46524282160557</v>
+        <v>12.46524282160552</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.29176661530838</v>
+        <v>41.29176661530797</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.83676990767546</v>
+        <v>23.8367699076754</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.19987792118684</v>
+        <v>28.1998779211869</v>
       </c>
       <c r="C21">
-        <v>29.19203944979146</v>
+        <v>29.19203944979129</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.29683345373333</v>
+        <v>13.29683345373341</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.84846252852878</v>
+        <v>43.84846252852886</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.55761267640293</v>
+        <v>25.55761267640296</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.42813003825774</v>
+        <v>29.42813003825768</v>
       </c>
       <c r="C22">
-        <v>30.50237750341154</v>
+        <v>30.50237750341139</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.90045806964795</v>
+        <v>13.90045806964807</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.52575125096651</v>
+        <v>45.52575125096624</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.66834458648457</v>
+        <v>26.66834458648458</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.7738746995418</v>
+        <v>28.77387469954183</v>
       </c>
       <c r="C23">
-        <v>29.80396895511925</v>
+        <v>29.80396895511933</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.57866096925101</v>
+        <v>13.57866096925104</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.62954982179614</v>
+        <v>44.62954982179644</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.07649125799727</v>
+        <v>26.07649125799731</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.26197672785867</v>
+        <v>26.26197672785876</v>
       </c>
       <c r="C24">
-        <v>27.13149654381289</v>
+        <v>27.13149654381304</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.45206851545906</v>
+        <v>12.45206851545905</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.25000251732627</v>
+        <v>41.25000251732628</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.80834489921257</v>
+        <v>23.8083448992126</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.44851848089326</v>
+        <v>23.44851848089312</v>
       </c>
       <c r="C25">
-        <v>24.15440205628371</v>
+        <v>24.15440205628348</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.30062517700084</v>
+        <v>11.30062517700081</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127055</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.59883828731096</v>
+        <v>37.59883828731051</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.2756992750346</v>
+        <v>21.27569927503447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.26266783638364</v>
+        <v>21.2626678363837</v>
       </c>
       <c r="C2">
-        <v>21.85283448092224</v>
+        <v>21.85283448092232</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.44394762999315</v>
+        <v>10.44394762999312</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>34.88087488048303</v>
+        <v>34.88087488048291</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.31372533793276</v>
+        <v>19.31372533793283</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70021318232149</v>
+        <v>19.7002131823214</v>
       </c>
       <c r="C3">
-        <v>20.21368925027667</v>
+        <v>20.21368925027673</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.855964455793465</v>
+        <v>9.855964455793432</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.0139923869565</v>
+        <v>33.01399238695658</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.91441404069295</v>
+        <v>17.9144140406929</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69816611527348</v>
+        <v>18.69816611527344</v>
       </c>
       <c r="C4">
-        <v>19.16510358542351</v>
+        <v>19.16510358542354</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31.85476854693799</v>
+        <v>31.85476854693812</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.01839878075942</v>
+        <v>17.01839878075946</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.27873240337538</v>
+        <v>18.27873240337544</v>
       </c>
       <c r="C5">
-        <v>18.72680791006001</v>
+        <v>18.72680791006014</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.341630393920862</v>
+        <v>9.341630393920926</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.37916538362486</v>
+        <v>31.37916538362462</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.64368084635148</v>
+        <v>16.64368084635147</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.20840611172155</v>
+        <v>18.20840611172166</v>
       </c>
       <c r="C6">
-        <v>18.65335494853205</v>
+        <v>18.65335494853207</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.316744003361183</v>
+        <v>9.316744003361242</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.30000167138956</v>
+        <v>31.30000167138968</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.58087156323634</v>
+        <v>16.58087156323638</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.69255483973989</v>
+        <v>18.69255483973997</v>
       </c>
       <c r="C7">
-        <v>19.15923755473805</v>
+        <v>19.15923755473782</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.489172997138782</v>
+        <v>9.489172997138775</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31.84836724305148</v>
+        <v>31.84836724305164</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.01338441234559</v>
+        <v>17.01338441234564</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73256879746535</v>
+        <v>20.73256879746528</v>
       </c>
       <c r="C8">
-        <v>21.29615442605776</v>
+        <v>21.29615442605778</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.2419984099957</v>
+        <v>10.24199840999571</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.23984975359428</v>
+        <v>34.23984975359424</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.83868166318557</v>
+        <v>18.83868166318554</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.41252858407674</v>
+        <v>24.41252858407691</v>
       </c>
       <c r="C9">
-        <v>25.17259658470821</v>
+        <v>25.17259658470836</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.68948417126086</v>
+        <v>11.68948417126089</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.83209904429462</v>
+        <v>38.83209904429506</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.1425643385806</v>
+        <v>22.1425643385807</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.95057259025566</v>
+        <v>26.95057259025553</v>
       </c>
       <c r="C10">
-        <v>27.86272402193234</v>
+        <v>27.86272402193229</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.7410933874904</v>
+        <v>12.74109338749038</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.1661827414583</v>
+        <v>42.16618274145841</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.42946494421425</v>
+        <v>24.42946494421416</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.0774820564865</v>
+        <v>28.07748205648622</v>
       </c>
       <c r="C11">
-        <v>29.06165123949613</v>
+        <v>29.06165123949604</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.23679801323306</v>
+        <v>13.23679801323303</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.68255419013234</v>
+        <v>43.682554190132</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.44701463695472</v>
+        <v>25.4470146369546</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.50109392633069</v>
+        <v>28.50109392633057</v>
       </c>
       <c r="C12">
-        <v>29.51306834641623</v>
+        <v>29.51306834641626</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.44467025634954</v>
+        <v>13.44467025634946</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44.25773660534226</v>
+        <v>44.25773660534211</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.82986117429414</v>
+        <v>25.82986117429405</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.40998496141611</v>
+        <v>28.40998496141617</v>
       </c>
       <c r="C13">
-        <v>29.41594494756862</v>
+        <v>29.41594494756866</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.39994053285213</v>
+        <v>13.39994053285219</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44.13379831564485</v>
+        <v>44.13379831564508</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.74750397998725</v>
+        <v>25.74750397998728</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.11238995000217</v>
+        <v>28.11238995000218</v>
       </c>
       <c r="C14">
-        <v>29.09883515813453</v>
+        <v>29.09883515813461</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.25391826340814</v>
+        <v>13.25391826340817</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.72984852083344</v>
+        <v>43.7298485208335</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.47855613318139</v>
+        <v>25.47855613318141</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.92972588197683</v>
+        <v>27.92972588197664</v>
       </c>
       <c r="C15">
-        <v>28.90429149137043</v>
+        <v>28.90429149137032</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.16435137372937</v>
+        <v>13.16435137372934</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.48257872153255</v>
+        <v>43.48257872153262</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.31352169576144</v>
+        <v>25.31352169576132</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.87643887126092</v>
+        <v>26.8764388712609</v>
       </c>
       <c r="C16">
-        <v>27.78395091526442</v>
+        <v>27.78395091526434</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.70985206958404</v>
+        <v>12.70985206958402</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.06715738750368</v>
+        <v>42.06715738750373</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.36257191179289</v>
+        <v>24.3625719117929</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.22375201352198</v>
+        <v>26.22375201352197</v>
       </c>
       <c r="C17">
-        <v>27.09093549239769</v>
+        <v>27.09093549239774</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,13 +994,13 @@
         <v>12.4361019104031</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.19938615249313</v>
+        <v>41.19938615249303</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.77388029313633</v>
+        <v>23.77388029313632</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.84568045466117</v>
+        <v>25.84568045466121</v>
       </c>
       <c r="C18">
-        <v>26.68992569434285</v>
+        <v>26.68992569434292</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>12.27863060139587</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.70015993215814</v>
+        <v>40.70015993215793</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.43308086623094</v>
+        <v>23.43308086623096</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.71719121271661</v>
+        <v>25.71719121271666</v>
       </c>
       <c r="C19">
-        <v>26.55371084364711</v>
+        <v>26.55371084364726</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.22530209985559</v>
+        <v>12.22530209985557</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.53108616612345</v>
+        <v>40.5310861661237</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.31729253386754</v>
+        <v>23.31729253386761</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.29350165322247</v>
+        <v>26.29350165322254</v>
       </c>
       <c r="C20">
-        <v>27.16495068770988</v>
+        <v>27.1649506877101</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.46524282160552</v>
+        <v>12.46524282160557</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.29176661530797</v>
+        <v>41.29176661530838</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.8367699076754</v>
+        <v>23.83676990767546</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.1998779211869</v>
+        <v>28.19987792118684</v>
       </c>
       <c r="C21">
-        <v>29.19203944979129</v>
+        <v>29.19203944979146</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.29683345373341</v>
+        <v>13.29683345373333</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.84846252852886</v>
+        <v>43.84846252852878</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.55761267640296</v>
+        <v>25.55761267640293</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.42813003825768</v>
+        <v>29.42813003825774</v>
       </c>
       <c r="C22">
-        <v>30.50237750341139</v>
+        <v>30.50237750341154</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.90045806964807</v>
+        <v>13.90045806964795</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.52575125096624</v>
+        <v>45.52575125096651</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.66834458648458</v>
+        <v>26.66834458648457</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.77387469954183</v>
+        <v>28.7738746995418</v>
       </c>
       <c r="C23">
-        <v>29.80396895511933</v>
+        <v>29.80396895511925</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.57866096925104</v>
+        <v>13.57866096925101</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.62954982179644</v>
+        <v>44.62954982179614</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.07649125799731</v>
+        <v>26.07649125799727</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.26197672785876</v>
+        <v>26.26197672785867</v>
       </c>
       <c r="C24">
-        <v>27.13149654381304</v>
+        <v>27.13149654381289</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.45206851545905</v>
+        <v>12.45206851545906</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.25000251732628</v>
+        <v>41.25000251732627</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.8083448992126</v>
+        <v>23.80834489921257</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.44851848089312</v>
+        <v>23.44851848089326</v>
       </c>
       <c r="C25">
-        <v>24.15440205628348</v>
+        <v>24.15440205628371</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.30062517700081</v>
+        <v>11.30062517700084</v>
       </c>
       <c r="F25">
-        <v>33.19272459127055</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.59883828731051</v>
+        <v>37.59883828731096</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.27569927503447</v>
+        <v>21.2756992750346</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.2626678363837</v>
+        <v>21.09718324665917</v>
       </c>
       <c r="C2">
-        <v>21.85283448092232</v>
+        <v>21.6846567443298</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.44394762999312</v>
+        <v>10.37661963428588</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.050018269160657</v>
       </c>
       <c r="H2">
-        <v>34.88087488048291</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>35.01342688871416</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.31372533793283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>19.20351777794748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7002131823214</v>
+        <v>19.54242237726446</v>
       </c>
       <c r="C3">
-        <v>20.21368925027673</v>
+        <v>20.05771067258299</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.855964455793432</v>
+        <v>9.783261663310341</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.064724261117871</v>
       </c>
       <c r="H3">
-        <v>33.01399238695658</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>33.17876461174901</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.9144140406929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.80892930995166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69816611527344</v>
+        <v>18.5452436617059</v>
       </c>
       <c r="C4">
-        <v>19.16510358542354</v>
+        <v>19.01708996105946</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.491186376567416</v>
+        <v>9.414602553485297</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.073856067477676</v>
       </c>
       <c r="H4">
-        <v>31.85476854693812</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>32.04078814691061</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.01839878075946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.91573906420362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.27873240337544</v>
+        <v>18.12783795907656</v>
       </c>
       <c r="C5">
-        <v>18.72680791006014</v>
+        <v>18.58217608923934</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.341630393920926</v>
+        <v>9.26331934221605</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.077609412541439</v>
       </c>
       <c r="H5">
-        <v>31.37916538362462</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>31.57421889941932</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.64368084635147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.54215645909305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.20840611172166</v>
+        <v>18.05785130346429</v>
       </c>
       <c r="C6">
-        <v>18.65335494853207</v>
+        <v>18.50929340203328</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.316744003361242</v>
+        <v>9.238137369759331</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.078234761034206</v>
       </c>
       <c r="H6">
-        <v>31.30000167138968</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>31.49657805419228</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.58087156323638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16.47953479767291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.69255483973997</v>
+        <v>18.53965954791914</v>
       </c>
       <c r="C7">
-        <v>19.15923755473782</v>
+        <v>19.01126896486012</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.489172997138775</v>
+        <v>9.41256646901863</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.073906548722809</v>
       </c>
       <c r="H7">
-        <v>31.84836724305164</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32.03450715140539</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.01338441234564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.91074006864221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73256879746528</v>
+        <v>20.56971192707</v>
       </c>
       <c r="C8">
-        <v>21.29615442605778</v>
+        <v>21.13209417402046</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.24199840999571</v>
+        <v>10.1729378770658</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.055071725539959</v>
       </c>
       <c r="H8">
-        <v>34.23984975359424</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.38321332487838</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.83868166318554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.7301202451719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.41252858407691</v>
+        <v>24.23089345800248</v>
       </c>
       <c r="C9">
-        <v>25.17259658470836</v>
+        <v>24.98003056958449</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.68948417126089</v>
+        <v>11.63059918449757</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.018616605620071</v>
       </c>
       <c r="H9">
-        <v>38.83209904429506</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>38.90261662220239</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.1425643385807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>22.02159566430139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.95057259025553</v>
+        <v>26.75495778552024</v>
       </c>
       <c r="C10">
-        <v>27.86272402193229</v>
+        <v>27.65004061325174</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.74109338749038</v>
+        <v>12.68680916893315</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.991575202894824</v>
       </c>
       <c r="H10">
-        <v>42.16618274145841</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>42.18875190188837</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.42946494421416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>24.29845362662471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.07748205648622</v>
+        <v>27.87527664630022</v>
       </c>
       <c r="C11">
-        <v>29.06165123949604</v>
+        <v>28.83972698045254</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.23679801323303</v>
+        <v>13.23045537511632</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.979061844486093</v>
       </c>
       <c r="H11">
-        <v>43.682554190132</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>43.68415164667841</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.4470146369546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>25.3110813383134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.50109392633057</v>
+        <v>28.29633793757248</v>
       </c>
       <c r="C12">
-        <v>29.51306834641626</v>
+        <v>29.2876035383861</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.44467025634946</v>
+        <v>13.43780283539323</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.974276481581836</v>
       </c>
       <c r="H12">
-        <v>44.25773660534211</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>44.25147237677101</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.82986117429405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>25.69199482196091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.40998496141617</v>
+        <v>28.20578113854404</v>
       </c>
       <c r="C13">
-        <v>29.41594494756866</v>
+        <v>29.19124502465909</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.39994053285219</v>
+        <v>13.39318878178232</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.975309476061865</v>
       </c>
       <c r="H13">
-        <v>44.13379831564508</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>44.12922445889531</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.74750397998728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>25.61005738208917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.11238995000218</v>
+        <v>27.90997594813197</v>
       </c>
       <c r="C14">
-        <v>29.09883515813461</v>
+        <v>28.87662063078919</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.25391826340817</v>
+        <v>13.24753362807423</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.978669194431081</v>
       </c>
       <c r="H14">
-        <v>43.7298485208335</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>43.73079786444342</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.47855613318141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>25.34246531503746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.92972588197664</v>
+        <v>27.72840030440019</v>
       </c>
       <c r="C15">
-        <v>28.90429149137032</v>
+        <v>28.68359300649999</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.16435137372934</v>
+        <v>13.15818404336733</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.980720476357908</v>
       </c>
       <c r="H15">
-        <v>43.48257872153262</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>43.48692018663349</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.31352169576132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>25.17825167121197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8764388712609</v>
+        <v>26.68124841396525</v>
       </c>
       <c r="C16">
-        <v>27.78395091526434</v>
+        <v>27.57186734549147</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.70985206958402</v>
+        <v>12.65546052138364</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.992387393762473</v>
       </c>
       <c r="H16">
-        <v>42.06715738750373</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>42.09111073259304</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.3625719117929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>24.23187370384321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.22375201352197</v>
+        <v>26.03225246656117</v>
       </c>
       <c r="C17">
-        <v>27.09093549239774</v>
+        <v>26.88409582799258</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.4361019104031</v>
+        <v>12.38069549966891</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.999479765636713</v>
       </c>
       <c r="H17">
-        <v>41.19938615249303</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>41.23555987643365</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.77388029313632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>23.64588487378981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.84568045466121</v>
+        <v>25.65628364709485</v>
       </c>
       <c r="C18">
-        <v>26.68992569434292</v>
+        <v>26.48609579248373</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.27863060139587</v>
+        <v>12.22257877542995</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.003540300665286</v>
       </c>
       <c r="H18">
-        <v>40.70015993215793</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>40.74344455261581</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.43308086623096</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>23.30660812951861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.71719121271666</v>
+        <v>25.52850345604933</v>
       </c>
       <c r="C19">
-        <v>26.55371084364726</v>
+        <v>26.35089965713578</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.22530209985557</v>
+        <v>12.16902128475267</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.00491234108115</v>
       </c>
       <c r="H19">
-        <v>40.5310861661237</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40.57679359625452</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.31729253386761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>23.19133034291417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.29350165322254</v>
+        <v>26.10161142814043</v>
       </c>
       <c r="C20">
-        <v>27.1649506877101</v>
+        <v>26.95755364656459</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.46524282160557</v>
+        <v>12.40995086307476</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.998726824770639</v>
       </c>
       <c r="H20">
-        <v>41.29176661530838</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>41.32663123118714</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.83676990767546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>23.70849018710527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.19987792118684</v>
+        <v>27.99693989825595</v>
       </c>
       <c r="C21">
-        <v>29.19203944979146</v>
+        <v>28.96909628281422</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.29683345373333</v>
+        <v>13.29034258370418</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.977683782307167</v>
       </c>
       <c r="H21">
-        <v>43.84846252852878</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>43.84778778707876</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.55761267640293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>25.42112568787754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.42813003825774</v>
+        <v>29.21763674447008</v>
       </c>
       <c r="C22">
-        <v>30.50237750341154</v>
+        <v>30.26901465870827</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.90045806964795</v>
+        <v>13.89232399160832</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.96364765907855</v>
       </c>
       <c r="H22">
-        <v>45.52575125096651</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>45.50228740525947</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.66834458648457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>26.52607689336672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.7738746995418</v>
+        <v>28.5674533699748</v>
       </c>
       <c r="C23">
-        <v>29.80396895511925</v>
+        <v>29.57620244139795</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.57866096925101</v>
+        <v>13.57143792652335</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.971171295431667</v>
       </c>
       <c r="H23">
-        <v>44.62954982179614</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>44.61822539953594</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.07649125799727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.93735475116806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.26197672785867</v>
+        <v>26.07026318666239</v>
       </c>
       <c r="C24">
-        <v>27.13149654381289</v>
+        <v>26.92435150631544</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.45206851545906</v>
+        <v>12.39672500567095</v>
       </c>
       <c r="F24">
         <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.999067280990511</v>
       </c>
       <c r="H24">
-        <v>41.25000251732627</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>41.28545871251621</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.80834489921257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23.68019380706497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.44851848089326</v>
+        <v>23.27194176491836</v>
       </c>
       <c r="C25">
-        <v>24.15440205628371</v>
+        <v>23.96932267908871</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.30062517700084</v>
+        <v>11.23948526762396</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.02847853422649</v>
       </c>
       <c r="H25">
-        <v>37.59883828731096</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>37.68798102702587</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.2756992750346</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>21.15820969805393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.09718324665917</v>
+        <v>21.1847686401862</v>
       </c>
       <c r="C2">
-        <v>21.6846567443298</v>
+        <v>14.81784888550689</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.37661963428588</v>
+        <v>30.01925337173119</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.050018269160657</v>
+        <v>2.04866486600385</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.01342688871416</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.75428847296518</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.20351777794748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>34.4541057430664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54242237726446</v>
+        <v>19.63164266775597</v>
       </c>
       <c r="C3">
-        <v>20.05771067258299</v>
+        <v>13.76224221530454</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.783261663310341</v>
+        <v>27.71884618182046</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.064724261117871</v>
+        <v>2.062157683086343</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.17876461174901</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.41710250351759</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.80892930995166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>32.55135815535556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.5452436617059</v>
+        <v>18.6349602602424</v>
       </c>
       <c r="C4">
-        <v>19.01708996105946</v>
+        <v>13.08686605998449</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.414602553485297</v>
+        <v>26.2549843472185</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.073856067477676</v>
+        <v>2.070521939576428</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.04078814691061</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.55976960529544</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.91573906420362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>31.37803011896289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.12783795907656</v>
+        <v>18.2176298802853</v>
       </c>
       <c r="C5">
-        <v>18.58217608923934</v>
+        <v>12.80453474990645</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.26331934221605</v>
+        <v>25.64474834909586</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.077609412541439</v>
+        <v>2.073956675248295</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.57421889941932</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.20097044824243</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.54215645909305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30.89862459596759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.05785130346429</v>
+        <v>18.14764811598448</v>
       </c>
       <c r="C6">
-        <v>18.50929340203328</v>
+        <v>12.75721736459483</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.238137369759331</v>
+        <v>25.542570732242</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.078234761034206</v>
+        <v>2.074528762664852</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.49657805419228</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.14081444969813</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.47953479767291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.8189460334458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53965954791914</v>
+        <v>18.62937767412069</v>
       </c>
       <c r="C7">
-        <v>19.01126896486012</v>
+        <v>13.08308755310237</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.41256646901863</v>
+        <v>26.24681092144125</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.073906548722809</v>
+        <v>2.070568147727875</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.03450715140539</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.55496926685114</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.91074006864221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>31.37156970465861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56971192707</v>
+        <v>20.65796619898409</v>
       </c>
       <c r="C8">
-        <v>21.13209417402046</v>
+        <v>14.45935776449764</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.1729378770658</v>
+        <v>29.23624414787447</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.055071725539959</v>
+        <v>2.053304654311034</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.38321332487838</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.30056627726342</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.7301202451719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>33.79903673321914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.23089345800248</v>
+        <v>24.31235710555435</v>
       </c>
       <c r="C9">
-        <v>24.98003056958449</v>
+        <v>16.95613982775001</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.63059918449757</v>
+        <v>34.73165440379294</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.018616605620071</v>
+        <v>2.019754439301523</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>38.90261662220239</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.45153579152585</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.02159566430139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>38.52815296536327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.75495778552024</v>
+        <v>26.82957714598159</v>
       </c>
       <c r="C10">
-        <v>27.65004061325174</v>
+        <v>18.6909222631582</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.68680916893315</v>
+        <v>38.61503880654368</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847369</v>
       </c>
       <c r="G10">
-        <v>1.991575202894824</v>
+        <v>1.994736808024702</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.18875190188837</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.62706673364193</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.29845362662471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>42.01103470534763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.87527664630022</v>
+        <v>27.9466945661214</v>
       </c>
       <c r="C11">
-        <v>28.83972698045254</v>
+        <v>19.46531417270353</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.23045537511632</v>
+        <v>40.36863542701942</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>1.979061844486093</v>
+        <v>1.983115563994023</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>43.68415164667841</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.5940189596507</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.3110813383134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>43.60849242179258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.29633793757248</v>
+        <v>28.36658241865275</v>
       </c>
       <c r="C12">
-        <v>29.2876035383861</v>
+        <v>19.7571674589643</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.43780283539323</v>
+        <v>41.0330468526524</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.974276481581836</v>
+        <v>1.978663029786181</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.25147237677101</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24.95771692176446</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.69199482196091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>44.2166741529973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.20578113854404</v>
+        <v>28.27627545855347</v>
       </c>
       <c r="C13">
-        <v>29.19124502465909</v>
+        <v>19.6943599757187</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.39318878178232</v>
+        <v>40.88989612570052</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>1.975309476061865</v>
+        <v>1.979624586854983</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.12922445889531</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>24.87948296636509</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.61005738208917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>44.0855195596835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.90997594813197</v>
+        <v>27.98129614559489</v>
       </c>
       <c r="C14">
-        <v>28.87662063078919</v>
+        <v>19.48934819550202</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.24753362807423</v>
+        <v>40.42327487675506</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>1.978669194431081</v>
+        <v>1.982750403412494</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>43.73079786444342</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.62398478155271</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.34246531503746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>43.658453077202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.72840030440019</v>
+        <v>27.80023347674755</v>
       </c>
       <c r="C15">
-        <v>28.68359300649999</v>
+        <v>19.36361596803184</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.15818404336733</v>
+        <v>40.13757890981551</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154518</v>
       </c>
       <c r="G15">
-        <v>1.980720476357908</v>
+        <v>1.984657726226294</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.48692018663349</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.46719052665489</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.17825167121197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>43.39733549262819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.68124841396525</v>
+        <v>26.75607899514132</v>
       </c>
       <c r="C16">
-        <v>27.57186734549147</v>
+        <v>18.64007546128522</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.65546052138364</v>
+        <v>38.50035416908219</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>1.992387393762473</v>
+        <v>1.995490059722302</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.09111073259304</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.5634814938559</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.23187370384321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>41.90700829255128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.03225246656117</v>
+        <v>26.10892766017794</v>
       </c>
       <c r="C17">
-        <v>26.88409582799258</v>
+        <v>18.19289349674723</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.38069549966891</v>
+        <v>37.49406691857589</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>1.999479765636713</v>
+        <v>2.002062670592696</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.23555987643365</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.0037840017661</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.64588487378981</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>40.99693930302997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65628364709485</v>
+        <v>25.7340071925842</v>
       </c>
       <c r="C18">
-        <v>26.48609579248373</v>
+        <v>17.93424376571053</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.22257877542995</v>
+        <v>36.91389518308704</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.003540300665286</v>
+        <v>2.005821648354044</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>40.74344455261581</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.67966654885445</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.30660812951861</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>40.47461734384142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52850345604933</v>
+        <v>25.6065786537621</v>
       </c>
       <c r="C19">
-        <v>26.35089965713578</v>
+        <v>17.84640203261656</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.16902128475267</v>
+        <v>36.71716237947765</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.00491234108115</v>
+        <v>2.00709115782145</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40.57679359625452</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.56952754399616</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.19133034291417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>40.29792629048777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10161142814043</v>
+        <v>26.17809128137761</v>
       </c>
       <c r="C20">
-        <v>26.95755364656459</v>
+        <v>18.24064130716674</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.40995086307476</v>
+        <v>37.60131652858295</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>1.998726824770639</v>
+        <v>2.001365333418618</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.32663123118714</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.06358662724953</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.70849018710527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>41.09369258251724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.99693989825595</v>
+        <v>28.06801589834923</v>
       </c>
       <c r="C21">
-        <v>28.96909628281422</v>
+        <v>19.54959619430994</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.29034258370418</v>
+        <v>40.56030239361566</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>1.977683782307167</v>
+        <v>1.981833839714997</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.84778778707876</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.69909041079359</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.42112568787754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>43.78379117529069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.21763674447008</v>
+        <v>29.28545692379484</v>
       </c>
       <c r="C22">
-        <v>30.26901465870827</v>
+        <v>20.39743882710453</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.89232399160832</v>
+        <v>42.49777338125737</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>1.96364765907855</v>
+        <v>1.968755549859808</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.50228740525947</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.75413250182312</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.52607689336672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>45.62125817030467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.5674533699748</v>
+        <v>28.63696016867198</v>
       </c>
       <c r="C23">
-        <v>29.57620244139795</v>
+        <v>19.94533684273328</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.57143792652335</v>
+        <v>41.46248229219281</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>1.971171295431667</v>
+        <v>1.975771197279181</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.61822539953594</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.19198809349263</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.93735475116806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>44.61048753405118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.07026318666239</v>
+        <v>26.1468313945224</v>
       </c>
       <c r="C24">
-        <v>26.92435150631544</v>
+        <v>18.21905943038047</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.39672500567095</v>
+        <v>37.55283426012752</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>1.999067280990511</v>
+        <v>2.001680659684859</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.28545871251621</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.0365572063424</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.68019380706497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>41.04994775427828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.27194176491836</v>
+        <v>23.35563202725729</v>
       </c>
       <c r="C25">
-        <v>23.96932267908871</v>
+        <v>16.30015224494602</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.23948526762396</v>
+        <v>33.27788877485053</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
-        <v>2.02847853422649</v>
+        <v>2.028849217053934</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.68798102702587</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.62579723141226</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.15820969805393</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>37.25013934676588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.1847686401862</v>
+        <v>21.14021622922127</v>
       </c>
       <c r="C2">
-        <v>14.81784888550689</v>
+        <v>14.81647744806148</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.01925337173119</v>
+        <v>11.36943250407477</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.04866486600385</v>
+        <v>11.41707606853878</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.02044001517922</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>7.990330019286798</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.75428847296518</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.23854869145542</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>34.4541057430664</v>
+        <v>8.54593969504646</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63164266775597</v>
+        <v>19.84052305865142</v>
       </c>
       <c r="C3">
-        <v>13.76224221530454</v>
+        <v>14.00742868641763</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.71884618182046</v>
+        <v>10.81167430430879</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.062157683086343</v>
+        <v>11.20461327936288</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.155719979300518</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.410875705746324</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.41710250351759</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.0908097089091</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.55135815535556</v>
+        <v>8.702391222215114</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6349602602424</v>
+        <v>18.99765151110423</v>
       </c>
       <c r="C4">
-        <v>13.08686605998449</v>
+        <v>13.48639118238738</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.2549843472185</v>
+        <v>10.47318927252943</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.070521939576428</v>
+        <v>11.11772933914139</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.244873661403085</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.676151700840288</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.55976960529544</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.34768785518527</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.37803011896289</v>
+        <v>8.815739170111952</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.2176298802853</v>
+        <v>18.64294941515304</v>
       </c>
       <c r="C5">
-        <v>12.80453474990645</v>
+        <v>13.26808475698528</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.64474834909586</v>
+        <v>10.33646434717558</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.073956675248295</v>
+        <v>11.09286335259241</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.282663165855921</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8.786059244069678</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.20097044824243</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.03520153021266</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.89862459596759</v>
+        <v>8.865960184281549</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.14764811598448</v>
+        <v>18.5833755271607</v>
       </c>
       <c r="C6">
-        <v>12.75721736459483</v>
+        <v>13.23147826808996</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.542570732242</v>
+        <v>10.31384091215157</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.074528762664852</v>
+        <v>11.08935640563759</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.289024198775294</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>8.804419255181413</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.14081444969813</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15.98273040950111</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.8189460334458</v>
+        <v>8.874533943290414</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.62937767412069</v>
+        <v>18.99291323453558</v>
       </c>
       <c r="C7">
-        <v>13.08308755310237</v>
+        <v>13.48347104799444</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.24681092144125</v>
+        <v>10.47134015888921</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.070568147727875</v>
+        <v>11.11735195285944</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.245377488547537</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.677626601456435</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.55496926685114</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.34351264926862</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.37156970465861</v>
+        <v>8.816400550633375</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65796619898409</v>
+        <v>20.70141625188305</v>
       </c>
       <c r="C8">
-        <v>14.45935776449764</v>
+        <v>14.54262270720648</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.23624414787447</v>
+        <v>11.17640989840777</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.053304654311034</v>
+        <v>11.33456644060838</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.065773820149069</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>8.133886951826405</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.30056627726342</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>17.85077355644899</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>33.79903673321914</v>
+        <v>8.596100419554595</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.31235710555435</v>
+        <v>23.69472585694838</v>
       </c>
       <c r="C9">
-        <v>16.95613982775001</v>
+        <v>16.4228703725538</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.73165440379294</v>
+        <v>12.58273301471324</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.019754439301523</v>
+        <v>12.11769992889692</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.765638147480474</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>7.122341184377939</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.45153579152585</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20.50268043007016</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>38.52815296536327</v>
+        <v>8.316317700104085</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.82957714598159</v>
+        <v>25.67607346480109</v>
       </c>
       <c r="C10">
-        <v>18.6909222631582</v>
+        <v>17.68049106884949</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.61503880654368</v>
+        <v>13.84724577353868</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>1.994736808024702</v>
+        <v>12.91670215212401</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.582794926671805</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.411011251708243</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.62706673364193</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.26808512277242</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>42.01103470534763</v>
+        <v>8.225189849171599</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.9466945661214</v>
+        <v>26.53040930116768</v>
       </c>
       <c r="C11">
-        <v>19.46531417270353</v>
+        <v>18.22530079367137</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.36863542701942</v>
+        <v>14.42840976209055</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>1.983115563994023</v>
+        <v>13.36867331050554</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.509334890488303</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.094149434466432</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.5940189596507</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.03221084102078</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>43.60849242179258</v>
+        <v>8.213362089072749</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.36658241865275</v>
+        <v>26.84720207319953</v>
       </c>
       <c r="C12">
-        <v>19.7571674589643</v>
+        <v>18.42766440711429</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.0330468526524</v>
+        <v>14.64610853076423</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.978663029786181</v>
+        <v>13.56911427933772</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.483062419491199</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.975134478243771</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.95771692176446</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.31603270038179</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>44.2166741529973</v>
+        <v>8.213530761757406</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.27627545855347</v>
+        <v>26.77927360884683</v>
       </c>
       <c r="C13">
-        <v>19.6943599757187</v>
+        <v>18.38425738061555</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.88989612570052</v>
+        <v>14.59932734116977</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.979624586854983</v>
+        <v>13.52575411495073</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.488649410107009</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.000722836682074</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.87948296636509</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.25515163086729</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>44.0855195596835</v>
+        <v>8.21328174135655</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.98129614559489</v>
+        <v>26.55660661271932</v>
       </c>
       <c r="C14">
-        <v>19.48934819550202</v>
+        <v>18.24202848436398</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.42327487675506</v>
+        <v>14.44636703919574</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>1.982750403412494</v>
+        <v>13.38507692111313</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.507141563603241</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.084338374287839</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.62398478155271</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>23.05567156776637</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>43.658453077202</v>
+        <v>8.213280660045337</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.80023347674755</v>
+        <v>26.41934185869721</v>
       </c>
       <c r="C15">
-        <v>19.36361596803184</v>
+        <v>18.15439517091754</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.13757890981551</v>
+        <v>14.352367851744</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>1.984657726226294</v>
+        <v>13.29947435177453</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.518674449371719</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.13568266412654</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.46719052665489</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>22.93276547376074</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>43.39733549262819</v>
+        <v>8.213896479019622</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.75607899514132</v>
+        <v>25.61929752389651</v>
       </c>
       <c r="C16">
-        <v>18.64007546128522</v>
+        <v>17.64433536615958</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.50035416908219</v>
+        <v>13.80892802879095</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>1.995490059722302</v>
+        <v>12.89078523968046</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.587803519421051</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.431854373565607</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.5634814938559</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.21736916133334</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>41.90700829255128</v>
+        <v>8.226592417672226</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.10892766017794</v>
+        <v>25.11648037172777</v>
       </c>
       <c r="C17">
-        <v>18.19289349674723</v>
+        <v>17.32442273748823</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.49406691857589</v>
+        <v>13.47122059917895</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.002062670592696</v>
+        <v>12.66894426945461</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.632800828120335</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6.615267558004942</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.0037840017661</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.76856158993818</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>40.99693930302997</v>
+        <v>8.242248754814856</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.7340071925842</v>
+        <v>24.82284786978488</v>
       </c>
       <c r="C18">
-        <v>17.93424376571053</v>
+        <v>17.13784928136696</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.91389518308704</v>
+        <v>13.27536568838612</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.005821648354044</v>
+        <v>12.54583192069015</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.659586801961467</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6.721393718427734</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.67966654885445</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.50674709129816</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>40.47461734384142</v>
+        <v>8.254019797236298</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.6065786537621</v>
+        <v>24.7226680923892</v>
       </c>
       <c r="C19">
-        <v>17.84640203261656</v>
+        <v>17.07423844577534</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.71716237947765</v>
+        <v>13.20877312197339</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.00709115782145</v>
+        <v>12.50492376851159</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.668807207898817</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.757434822601592</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.56952754399616</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.41746858751378</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>40.29792629048777</v>
+        <v>8.258468300635602</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.17809128137761</v>
+        <v>25.17046392887165</v>
       </c>
       <c r="C20">
-        <v>18.24064130716674</v>
+        <v>17.35874396361087</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.60131652858295</v>
+        <v>13.50733670053236</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.001365333418618</v>
+        <v>12.69209678201506</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.627916132207973</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.595677542546905</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.06358662724953</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>21.81671752796169</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>41.09369258251724</v>
+        <v>8.240292995915253</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.06801589834923</v>
+        <v>26.62219154336561</v>
       </c>
       <c r="C21">
-        <v>19.54959619430994</v>
+        <v>18.28391169621214</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.56030239361566</v>
+        <v>14.49135890632393</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.981833839714997</v>
+        <v>13.42627976270632</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.501666771792165</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.059751879690127</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.69909041079359</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.11441336132782</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>43.78379117529069</v>
+        <v>8.213151836601103</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.28545692379484</v>
+        <v>27.53179807927159</v>
       </c>
       <c r="C22">
-        <v>20.39743882710453</v>
+        <v>18.86557271013988</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.49777338125737</v>
+        <v>15.12068033068086</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>1.968755549859808</v>
+        <v>14.01752644636758</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.428242780396023</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.715189475170704</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.75413250182312</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>23.93030232536068</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>45.62125817030467</v>
+        <v>8.222669164122982</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.63696016867198</v>
+        <v>27.0498963172837</v>
       </c>
       <c r="C23">
-        <v>19.94533684273328</v>
+        <v>18.55723631636401</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.46248229219281</v>
+        <v>14.78602968935189</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>1.975771197279181</v>
+        <v>13.69972312356882</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.466545906079411</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.89855954210642</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.19198809349263</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>23.49777154565284</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>44.61048753405118</v>
+        <v>8.214972423596054</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.1468313945224</v>
+        <v>25.14607215657131</v>
       </c>
       <c r="C24">
-        <v>18.21905943038047</v>
+        <v>17.34323559422531</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.55283426012752</v>
+        <v>13.49101391969145</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.001680659684859</v>
+        <v>12.68161572694316</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.63012165978549</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.604532072287812</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.0365572063424</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>21.794958035402</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>41.04994775427828</v>
+        <v>8.241168596190267</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.35563202725729</v>
+        <v>22.9232598479047</v>
       </c>
       <c r="C25">
-        <v>16.30015224494602</v>
+        <v>15.93575214299524</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.27788877485053</v>
+        <v>12.20073692217827</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.028849217053934</v>
+        <v>11.86651569539882</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.840692610946555</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>7.390307103240093</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.62579723141226</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.81760726328179</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>37.25013934676588</v>
+        <v>8.373521549672489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14021622922127</v>
+        <v>12.43159475247495</v>
       </c>
       <c r="C2">
-        <v>14.81647744806148</v>
+        <v>9.860254230117771</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.36943250407477</v>
+        <v>12.04184355042982</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>11.41707606853878</v>
+        <v>15.1515694203765</v>
       </c>
       <c r="H2">
-        <v>6.02044001517922</v>
+        <v>10.94917713737281</v>
       </c>
       <c r="I2">
-        <v>7.990330019286798</v>
+        <v>15.04975895049383</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.23854869145542</v>
+        <v>14.06048477013874</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.54593969504646</v>
+        <v>14.82721739443905</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84052305865142</v>
+        <v>11.69621503460326</v>
       </c>
       <c r="C3">
-        <v>14.00742868641763</v>
+        <v>9.457720933776473</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.81167430430879</v>
+        <v>11.99570691534118</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>11.20461327936288</v>
+        <v>15.29675550950922</v>
       </c>
       <c r="H3">
-        <v>6.155719979300518</v>
+        <v>11.01490787016469</v>
       </c>
       <c r="I3">
-        <v>8.410875705746324</v>
+        <v>15.19632566768479</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.0908097089091</v>
+        <v>13.70630745484307</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.702391222215114</v>
+        <v>14.94586293071683</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.99765151110423</v>
+        <v>11.2184636832313</v>
       </c>
       <c r="C4">
-        <v>13.48639118238738</v>
+        <v>9.200749769805338</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.47318927252943</v>
+        <v>11.97327616963715</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>11.11772933914139</v>
+        <v>15.39707441954827</v>
       </c>
       <c r="H4">
-        <v>6.244873661403085</v>
+        <v>11.0577216290605</v>
       </c>
       <c r="I4">
-        <v>8.676151700840288</v>
+        <v>15.29080555170222</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.34768785518527</v>
+        <v>13.48611351455491</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.815739170111952</v>
+        <v>15.02385402747129</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64294941515304</v>
+        <v>11.01724441895473</v>
       </c>
       <c r="C5">
-        <v>13.26808475698528</v>
+        <v>9.093680079066731</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.33646434717558</v>
+        <v>11.96562248142296</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>11.09286335259241</v>
+        <v>15.44072509831167</v>
       </c>
       <c r="H5">
-        <v>6.282663165855921</v>
+        <v>11.07578593190897</v>
       </c>
       <c r="I5">
-        <v>8.786059244069678</v>
+        <v>15.33043839927076</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.03520153021266</v>
+        <v>13.39582594924826</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.865960184281549</v>
+        <v>15.05692468296749</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.5833755271607</v>
+        <v>10.98343979282859</v>
       </c>
       <c r="C6">
-        <v>13.23147826808996</v>
+        <v>9.075762886453793</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.31384091215157</v>
+        <v>11.96444146712967</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>11.08935640563759</v>
+        <v>15.44813938297607</v>
       </c>
       <c r="H6">
-        <v>6.289024198775294</v>
+        <v>11.07882278451727</v>
       </c>
       <c r="I6">
-        <v>8.804419255181413</v>
+        <v>15.33708783775385</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.98273040950111</v>
+        <v>13.38080403754335</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.874533943290414</v>
+        <v>15.06249374505185</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.99291323453558</v>
+        <v>11.21577632099322</v>
       </c>
       <c r="C7">
-        <v>13.48347104799444</v>
+        <v>9.199315148477792</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.47134015888921</v>
+        <v>11.97316692520074</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>11.11735195285944</v>
+        <v>15.39765194561637</v>
       </c>
       <c r="H7">
-        <v>6.245377488547537</v>
+        <v>11.05796275084328</v>
       </c>
       <c r="I7">
-        <v>8.677626601456435</v>
+        <v>15.29133546845223</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.34351264926862</v>
+        <v>13.48489794390381</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.816400550633375</v>
+        <v>15.02429481794711</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.70141625188305</v>
+        <v>12.18351149233394</v>
       </c>
       <c r="C8">
-        <v>14.54262270720648</v>
+        <v>9.7235625572772</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.17640989840777</v>
+        <v>12.02471499368237</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>11.33456644060838</v>
+        <v>15.19928653530534</v>
       </c>
       <c r="H8">
-        <v>6.065773820149069</v>
+        <v>10.97133162857968</v>
       </c>
       <c r="I8">
-        <v>8.133886951826405</v>
+        <v>15.09936571382454</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.85077355644899</v>
+        <v>13.93900604126515</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.596100419554595</v>
+        <v>14.86705641298069</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.69472585694838</v>
+        <v>13.87116990619528</v>
       </c>
       <c r="C9">
-        <v>16.4228703725538</v>
+        <v>10.66938992328009</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.58273301471324</v>
+        <v>12.1722714704455</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>12.11769992889692</v>
+        <v>14.90071075633222</v>
       </c>
       <c r="H9">
-        <v>5.765638147480474</v>
+        <v>10.8209233404409</v>
       </c>
       <c r="I9">
-        <v>7.122341184377939</v>
+        <v>14.75837311558266</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.50268043007016</v>
+        <v>14.80253332012838</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8.316317700104085</v>
+        <v>14.5997158163436</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.67607346480109</v>
+        <v>14.98123852134117</v>
       </c>
       <c r="C10">
-        <v>17.68049106884949</v>
+        <v>11.3092745727896</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.84724577353868</v>
+        <v>12.30837930136073</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>12.91670215212401</v>
+        <v>14.73881567089431</v>
       </c>
       <c r="H10">
-        <v>5.582794926671805</v>
+        <v>10.72228714064303</v>
       </c>
       <c r="I10">
-        <v>6.411011251708243</v>
+        <v>14.52925722134442</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.26808512277242</v>
+        <v>15.41389335977962</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.225189849171599</v>
+        <v>14.42858139807703</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.53040930116768</v>
+        <v>15.45784992116533</v>
       </c>
       <c r="C11">
-        <v>18.22530079367137</v>
+        <v>11.5876288793586</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.42840976209055</v>
+        <v>12.37611991026151</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>13.36867331050554</v>
+        <v>14.67812532409488</v>
       </c>
       <c r="H11">
-        <v>5.509334890488303</v>
+        <v>10.67999221986602</v>
       </c>
       <c r="I11">
-        <v>6.094149434466432</v>
+        <v>14.42963202536706</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.03221084102078</v>
+        <v>15.68576024761363</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8.213362089072749</v>
+        <v>14.35628172681312</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.84720207319953</v>
+        <v>15.63424340035011</v>
       </c>
       <c r="C12">
-        <v>18.42766440711429</v>
+        <v>11.69114979433304</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.64610853076423</v>
+        <v>12.40258906137403</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>13.56911427933772</v>
+        <v>14.65704419797162</v>
       </c>
       <c r="H12">
-        <v>5.483062419491199</v>
+        <v>10.66434672773435</v>
       </c>
       <c r="I12">
-        <v>5.975134478243771</v>
+        <v>14.39256491020577</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.31603270038179</v>
+        <v>15.78771818603239</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.213530761757406</v>
+        <v>14.32970755275092</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.77927360884683</v>
+        <v>15.59643587017102</v>
       </c>
       <c r="C13">
-        <v>18.38425738061555</v>
+        <v>11.66893936969948</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.59932734116977</v>
+        <v>12.39685245653296</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>13.52575411495073</v>
+        <v>14.66149926456646</v>
       </c>
       <c r="H13">
-        <v>5.488649410107009</v>
+        <v>10.6676997720773</v>
       </c>
       <c r="I13">
-        <v>6.000722836682074</v>
+        <v>14.40051872130141</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.25515163086729</v>
+        <v>15.76580526277125</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.21328174135655</v>
+        <v>14.33539491429715</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.55660661271932</v>
+        <v>15.47244390627123</v>
       </c>
       <c r="C14">
-        <v>18.24202848436398</v>
+        <v>11.59618368627793</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.44636703919574</v>
+        <v>12.37828128886485</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>13.38507692111313</v>
+        <v>14.67635265786125</v>
       </c>
       <c r="H14">
-        <v>5.507141563603241</v>
+        <v>10.67869762462113</v>
       </c>
       <c r="I14">
-        <v>6.084338374287839</v>
+        <v>14.42656930439921</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.05567156776637</v>
+        <v>15.69416878458005</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>8.213280660045337</v>
+        <v>14.35407930215677</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.41934185869721</v>
+        <v>15.39596253993067</v>
       </c>
       <c r="C15">
-        <v>18.15439517091754</v>
+        <v>11.55137165613582</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.352367851744</v>
+        <v>12.36701170039084</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>13.29947435177453</v>
+        <v>14.68569944912267</v>
       </c>
       <c r="H15">
-        <v>5.518674449371719</v>
+        <v>10.6854824116399</v>
       </c>
       <c r="I15">
-        <v>6.13568266412654</v>
+        <v>14.44261174935691</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.93276547376074</v>
+        <v>15.65015750324763</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.213896479019622</v>
+        <v>14.36562893418926</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.61929752389651</v>
+        <v>14.94951909000745</v>
       </c>
       <c r="C16">
-        <v>17.64433536615958</v>
+        <v>11.29082236305119</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.80892802879095</v>
+        <v>12.30406781548412</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>12.89078523968046</v>
+        <v>14.74304592136729</v>
       </c>
       <c r="H16">
-        <v>5.587803519421051</v>
+        <v>10.72510306281298</v>
       </c>
       <c r="I16">
-        <v>6.431854373565607</v>
+        <v>14.53586030129428</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.21736916133334</v>
+        <v>15.39599233426824</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.226592417672226</v>
+        <v>14.43341854749186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.11648037172777</v>
+        <v>14.66836671367588</v>
       </c>
       <c r="C17">
-        <v>17.32442273748823</v>
+        <v>11.12768086969177</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.47122059917895</v>
+        <v>12.2669318860418</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>12.66894426945461</v>
+        <v>14.78157206914276</v>
       </c>
       <c r="H17">
-        <v>5.632800828120335</v>
+        <v>10.75006886163197</v>
       </c>
       <c r="I17">
-        <v>6.615267558004942</v>
+        <v>14.59424163225671</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.76856158993818</v>
+        <v>15.23840140601701</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.242248754814856</v>
+        <v>14.47643105785886</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.82284786978488</v>
+        <v>14.50398573264281</v>
       </c>
       <c r="C18">
-        <v>17.13784928136696</v>
+        <v>11.03265045250665</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.27536568838612</v>
+        <v>12.24612188165492</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>12.54583192069015</v>
+        <v>14.80494865404842</v>
       </c>
       <c r="H18">
-        <v>5.659586801961467</v>
+        <v>10.76467089196663</v>
       </c>
       <c r="I18">
-        <v>6.721393718427734</v>
+        <v>14.6282542415677</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.50674709129816</v>
+        <v>15.14717669679027</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.254019797236298</v>
+        <v>14.50169275884776</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.7226680923892</v>
+        <v>14.44787105477668</v>
       </c>
       <c r="C19">
-        <v>17.07423844577534</v>
+        <v>11.00027123193332</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.20877312197339</v>
+        <v>12.23917094550329</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>12.50492376851159</v>
+        <v>14.81307146646018</v>
       </c>
       <c r="H19">
-        <v>5.668807207898817</v>
+        <v>10.76965650422495</v>
       </c>
       <c r="I19">
-        <v>6.757434822601592</v>
+        <v>14.63984481715131</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.41746858751378</v>
+        <v>15.11619252379663</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.258468300635602</v>
+        <v>14.51033541745032</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.17046392887165</v>
+        <v>14.69857224501044</v>
       </c>
       <c r="C20">
-        <v>17.35874396361087</v>
+        <v>11.14517174038799</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.50733670053236</v>
+        <v>12.27082832711812</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>12.69209678201506</v>
+        <v>14.77734462270626</v>
       </c>
       <c r="H20">
-        <v>5.627916132207973</v>
+        <v>10.74738612352265</v>
       </c>
       <c r="I20">
-        <v>6.595677542546905</v>
+        <v>14.58798202448724</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.81671752796169</v>
+        <v>15.2552382320547</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.240292995915253</v>
+        <v>14.47179823015346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.62219154336561</v>
+        <v>15.50897437847497</v>
       </c>
       <c r="C21">
-        <v>18.28391169621214</v>
+        <v>11.61760537018612</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.49135890632393</v>
+        <v>12.38371408432986</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>13.42627976270632</v>
+        <v>14.67193797083735</v>
       </c>
       <c r="H21">
-        <v>5.501666771792165</v>
+        <v>10.67545722550663</v>
       </c>
       <c r="I21">
-        <v>6.059751879690127</v>
+        <v>14.41889975960416</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.11441336132782</v>
+        <v>15.71523779344218</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.213151836601103</v>
+        <v>14.34856937142007</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.53179807927159</v>
+        <v>16.01478449345331</v>
       </c>
       <c r="C22">
-        <v>18.86557271013988</v>
+        <v>11.91535637540888</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.12068033068086</v>
+        <v>12.46224400767994</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>14.01752644636758</v>
+        <v>14.61414532309532</v>
       </c>
       <c r="H22">
-        <v>5.428242780396023</v>
+        <v>10.63060832429414</v>
       </c>
       <c r="I22">
-        <v>5.715189475170704</v>
+        <v>14.31223334917795</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.93030232536068</v>
+        <v>16.01005291488666</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.222669164122982</v>
+        <v>14.27272226918735</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.0498963172837</v>
+        <v>15.74700701664974</v>
       </c>
       <c r="C23">
-        <v>18.55723631636401</v>
+        <v>11.75746461908303</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.78602968935189</v>
+        <v>12.41990354992348</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>13.69972312356882</v>
+        <v>14.64396295880759</v>
       </c>
       <c r="H23">
-        <v>5.466545906079411</v>
+        <v>10.65434717995178</v>
       </c>
       <c r="I23">
-        <v>5.89855954210642</v>
+        <v>14.36881290226884</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.49777154565284</v>
+        <v>15.85326627897333</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.214972423596054</v>
+        <v>14.31277211496909</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.14607215657131</v>
+        <v>14.68492486652292</v>
       </c>
       <c r="C24">
-        <v>17.34323559422531</v>
+        <v>11.1372679702439</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.49101391969145</v>
+        <v>12.26906506274346</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>12.68161572694316</v>
+        <v>14.77925203091153</v>
       </c>
       <c r="H24">
-        <v>5.63012165978549</v>
+        <v>10.74859821425157</v>
       </c>
       <c r="I24">
-        <v>6.604532072287812</v>
+        <v>14.59081059616832</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.794958035402</v>
+        <v>15.24762823808107</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.241168596190267</v>
+        <v>14.47389107099682</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9232598479047</v>
+        <v>13.43732677375843</v>
       </c>
       <c r="C25">
-        <v>15.93575214299524</v>
+        <v>10.4228731318352</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.20073692217827</v>
+        <v>12.12743262474492</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>11.86651569539882</v>
+        <v>14.97155779398275</v>
       </c>
       <c r="H25">
-        <v>5.840692610946555</v>
+        <v>10.85952838282768</v>
       </c>
       <c r="I25">
-        <v>7.390307103240093</v>
+        <v>14.84684584357032</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.81760726328179</v>
+        <v>14.57252858849783</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>8.373521549672489</v>
+        <v>14.66762014845584</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.43159475247495</v>
+        <v>21.14021622922124</v>
       </c>
       <c r="C2">
-        <v>9.860254230117771</v>
+        <v>14.81647744806161</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.04184355042982</v>
+        <v>11.36943250407478</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>15.1515694203765</v>
+        <v>11.41707606853875</v>
       </c>
       <c r="H2">
-        <v>10.94917713737281</v>
+        <v>6.020440015179277</v>
       </c>
       <c r="I2">
-        <v>15.04975895049383</v>
+        <v>7.990330019286897</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.06048477013874</v>
+        <v>18.23854869145542</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.82721739443905</v>
+        <v>8.545939695046483</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.69621503460326</v>
+        <v>19.84052305865145</v>
       </c>
       <c r="C3">
-        <v>9.457720933776473</v>
+        <v>14.00742868641755</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.99570691534118</v>
+        <v>10.81167430430878</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>15.29675550950922</v>
+        <v>11.20461327936299</v>
       </c>
       <c r="H3">
-        <v>11.01490787016469</v>
+        <v>6.155719979300586</v>
       </c>
       <c r="I3">
-        <v>15.19632566768479</v>
+        <v>8.41087570574633</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.70630745484307</v>
+        <v>17.09080970890911</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.94586293071683</v>
+        <v>8.702391222215194</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.2184636832313</v>
+        <v>18.99765151110427</v>
       </c>
       <c r="C4">
-        <v>9.200749769805338</v>
+        <v>13.48639118238732</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.97327616963715</v>
+        <v>10.47318927252942</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>15.39707441954827</v>
+        <v>11.11772933914139</v>
       </c>
       <c r="H4">
-        <v>11.0577216290605</v>
+        <v>6.244873661403029</v>
       </c>
       <c r="I4">
-        <v>15.29080555170222</v>
+        <v>8.676151700840117</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.48611351455491</v>
+        <v>16.34768785518528</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.02385402747129</v>
+        <v>8.815739170111851</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.01724441895473</v>
+        <v>18.64294941515305</v>
       </c>
       <c r="C5">
-        <v>9.093680079066731</v>
+        <v>13.26808475698517</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.96562248142296</v>
+        <v>10.3364643471756</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>15.44072509831167</v>
+        <v>11.0928633525925</v>
       </c>
       <c r="H5">
-        <v>11.07578593190897</v>
+        <v>6.282663165855988</v>
       </c>
       <c r="I5">
-        <v>15.33043839927076</v>
+        <v>8.78605924406968</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.39582594924826</v>
+        <v>16.03520153021263</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.05692468296749</v>
+        <v>8.865960184281585</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98343979282859</v>
+        <v>18.58337552716072</v>
       </c>
       <c r="C6">
-        <v>9.075762886453793</v>
+        <v>13.23147826808993</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.96444146712967</v>
+        <v>10.31384091215162</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>15.44813938297607</v>
+        <v>11.08935640563765</v>
       </c>
       <c r="H6">
-        <v>11.07882278451727</v>
+        <v>6.289024198775303</v>
       </c>
       <c r="I6">
-        <v>15.33708783775385</v>
+        <v>8.804419255181418</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.38080403754335</v>
+        <v>15.98273040950107</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.06249374505185</v>
+        <v>8.874533943290443</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.21577632099322</v>
+        <v>18.99291323453556</v>
       </c>
       <c r="C7">
-        <v>9.199315148477792</v>
+        <v>13.48347104799439</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.97316692520074</v>
+        <v>10.47134015888921</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>15.39765194561637</v>
+        <v>11.11735195285942</v>
       </c>
       <c r="H7">
-        <v>11.05796275084328</v>
+        <v>6.245377488547481</v>
       </c>
       <c r="I7">
-        <v>15.29133546845223</v>
+        <v>8.677626601456339</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.48489794390381</v>
+        <v>16.34351264926866</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.02429481794711</v>
+        <v>8.816400550633306</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.18351149233394</v>
+        <v>20.70141625188301</v>
       </c>
       <c r="C8">
-        <v>9.7235625572772</v>
+        <v>14.54262270720646</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.02471499368237</v>
+        <v>11.17640989840778</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>15.19928653530534</v>
+        <v>11.33456644060851</v>
       </c>
       <c r="H8">
-        <v>10.97133162857968</v>
+        <v>6.065773820149021</v>
       </c>
       <c r="I8">
-        <v>15.09936571382454</v>
+        <v>8.13388695182641</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.93900604126515</v>
+        <v>17.85077355644897</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.86705641298069</v>
+        <v>8.596100419554622</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.87116990619528</v>
+        <v>23.69472585694839</v>
       </c>
       <c r="C9">
-        <v>10.66938992328009</v>
+        <v>16.42287037255367</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.1722714704455</v>
+        <v>12.58273301471327</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>14.90071075633222</v>
+        <v>12.1176999288972</v>
       </c>
       <c r="H9">
-        <v>10.8209233404409</v>
+        <v>5.765638147480597</v>
       </c>
       <c r="I9">
-        <v>14.75837311558266</v>
+        <v>7.122341184378183</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.80253332012838</v>
+        <v>20.50268043007019</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.5997158163436</v>
+        <v>8.316317700104326</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.98123852134117</v>
+        <v>25.67607346480105</v>
       </c>
       <c r="C10">
-        <v>11.3092745727896</v>
+        <v>17.68049106884958</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.30837930136073</v>
+        <v>13.8472457735387</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>14.73881567089431</v>
+        <v>12.91670215212404</v>
       </c>
       <c r="H10">
-        <v>10.72228714064303</v>
+        <v>5.58279492667182</v>
       </c>
       <c r="I10">
-        <v>14.52925722134442</v>
+        <v>6.411011251708247</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.41389335977962</v>
+        <v>22.26808512277244</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.42858139807703</v>
+        <v>8.225189849171608</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.45784992116533</v>
+        <v>26.53040930116762</v>
       </c>
       <c r="C11">
-        <v>11.5876288793586</v>
+        <v>18.22530079367145</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.37611991026151</v>
+        <v>14.42840976209055</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>14.67812532409488</v>
+        <v>13.36867331050548</v>
       </c>
       <c r="H11">
-        <v>10.67999221986602</v>
+        <v>5.509334890488446</v>
       </c>
       <c r="I11">
-        <v>14.42963202536706</v>
+        <v>6.094149434466662</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.68576024761363</v>
+        <v>23.03221084102075</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.35628172681312</v>
+        <v>8.21336208907281</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.63424340035011</v>
+        <v>26.84720207319953</v>
       </c>
       <c r="C12">
-        <v>11.69114979433304</v>
+        <v>18.42766440711429</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.40258906137403</v>
+        <v>14.64610853076418</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>14.65704419797162</v>
+        <v>13.56911427933773</v>
       </c>
       <c r="H12">
-        <v>10.66434672773435</v>
+        <v>5.483062419491203</v>
       </c>
       <c r="I12">
-        <v>14.39256491020577</v>
+        <v>5.975134478243771</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.78771818603239</v>
+        <v>23.31603270038177</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.32970755275092</v>
+        <v>8.213530761757413</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.59643587017102</v>
+        <v>26.7792736088469</v>
       </c>
       <c r="C13">
-        <v>11.66893936969948</v>
+        <v>18.38425738061534</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.39685245653296</v>
+        <v>14.59932734116976</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>14.66149926456646</v>
+        <v>13.52575411495066</v>
       </c>
       <c r="H13">
-        <v>10.6676997720773</v>
+        <v>5.488649410106999</v>
       </c>
       <c r="I13">
-        <v>14.40051872130141</v>
+        <v>6.00072283668197</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.76580526277125</v>
+        <v>23.25515163086728</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.33539491429715</v>
+        <v>8.213281741356518</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.47244390627123</v>
+        <v>26.55660661271924</v>
       </c>
       <c r="C14">
-        <v>11.59618368627793</v>
+        <v>18.24202848436391</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.37828128886485</v>
+        <v>14.44636703919577</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>14.67635265786125</v>
+        <v>13.38507692111311</v>
       </c>
       <c r="H14">
-        <v>10.67869762462113</v>
+        <v>5.507141563603251</v>
       </c>
       <c r="I14">
-        <v>14.42656930439921</v>
+        <v>6.084338374287909</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.69416878458005</v>
+        <v>23.05567156776631</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.35407930215677</v>
+        <v>8.21328066004542</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.39596253993067</v>
+        <v>26.41934185869721</v>
       </c>
       <c r="C15">
-        <v>11.55137165613582</v>
+        <v>18.15439517091755</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.36701170039084</v>
+        <v>14.352367851744</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>14.68569944912267</v>
+        <v>13.29947435177451</v>
       </c>
       <c r="H15">
-        <v>10.6854824116399</v>
+        <v>5.518674449371719</v>
       </c>
       <c r="I15">
-        <v>14.44261174935691</v>
+        <v>6.135682664126574</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.65015750324763</v>
+        <v>22.93276547376073</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.36562893418926</v>
+        <v>8.213896479019676</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.94951909000745</v>
+        <v>25.61929752389651</v>
       </c>
       <c r="C16">
-        <v>11.29082236305119</v>
+        <v>17.64433536615947</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.30406781548412</v>
+        <v>13.80892802879092</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>14.74304592136729</v>
+        <v>12.89078523968053</v>
       </c>
       <c r="H16">
-        <v>10.72510306281298</v>
+        <v>5.587803519421056</v>
       </c>
       <c r="I16">
-        <v>14.53586030129428</v>
+        <v>6.431854373565549</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.39599233426824</v>
+        <v>22.2173691613333</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.43341854749186</v>
+        <v>8.22659241767227</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.66836671367588</v>
+        <v>25.1164803717278</v>
       </c>
       <c r="C17">
-        <v>11.12768086969177</v>
+        <v>17.32442273748828</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.2669318860418</v>
+        <v>13.47122059917892</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>14.78157206914276</v>
+        <v>12.66894426945456</v>
       </c>
       <c r="H17">
-        <v>10.75006886163197</v>
+        <v>5.632800828120319</v>
       </c>
       <c r="I17">
-        <v>14.59424163225671</v>
+        <v>6.615267558004902</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.23840140601701</v>
+        <v>21.76856158993818</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.47643105785886</v>
+        <v>8.242248754814792</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.50398573264281</v>
+        <v>24.82284786978485</v>
       </c>
       <c r="C18">
-        <v>11.03265045250665</v>
+        <v>17.137849281367</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.24612188165492</v>
+        <v>13.27536568838611</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>14.80494865404842</v>
+        <v>12.54583192069018</v>
       </c>
       <c r="H18">
-        <v>10.76467089196663</v>
+        <v>5.659586801961351</v>
       </c>
       <c r="I18">
-        <v>14.6282542415677</v>
+        <v>6.721393718427733</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.14717669679027</v>
+        <v>21.50674709129816</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.50169275884776</v>
+        <v>8.254019797236243</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.44787105477668</v>
+        <v>24.72266809238926</v>
       </c>
       <c r="C19">
-        <v>11.00027123193332</v>
+        <v>17.07423844577521</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.23917094550329</v>
+        <v>13.20877312197339</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>14.81307146646018</v>
+        <v>12.50492376851162</v>
       </c>
       <c r="H19">
-        <v>10.76965650422495</v>
+        <v>5.668807207898769</v>
       </c>
       <c r="I19">
-        <v>14.63984481715131</v>
+        <v>6.757434822601563</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.11619252379663</v>
+        <v>21.4174685875138</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.51033541745032</v>
+        <v>8.258468300635611</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.69857224501044</v>
+        <v>25.17046392887166</v>
       </c>
       <c r="C20">
-        <v>11.14517174038799</v>
+        <v>17.35874396361092</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.27082832711812</v>
+        <v>13.50733670053235</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>14.77734462270626</v>
+        <v>12.69209678201504</v>
       </c>
       <c r="H20">
-        <v>10.74738612352265</v>
+        <v>5.627916132207987</v>
       </c>
       <c r="I20">
-        <v>14.58798202448724</v>
+        <v>6.59567754254681</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.2552382320547</v>
+        <v>21.81671752796169</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.47179823015346</v>
+        <v>8.240292995915178</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.50897437847497</v>
+        <v>26.6221915433656</v>
       </c>
       <c r="C21">
-        <v>11.61760537018612</v>
+        <v>18.2839116962121</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.38371408432986</v>
+        <v>14.49135890632397</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>14.67193797083735</v>
+        <v>13.42627976270634</v>
       </c>
       <c r="H21">
-        <v>10.67545722550663</v>
+        <v>5.501666771792173</v>
       </c>
       <c r="I21">
-        <v>14.41889975960416</v>
+        <v>6.059751879690099</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.71523779344218</v>
+        <v>23.11441336132782</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.34856937142007</v>
+        <v>8.213151836601122</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.01478449345331</v>
+        <v>27.53179807927158</v>
       </c>
       <c r="C22">
-        <v>11.91535637540888</v>
+        <v>18.86557271013984</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.46224400767994</v>
+        <v>15.12068033068089</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>14.61414532309532</v>
+        <v>14.01752644636753</v>
       </c>
       <c r="H22">
-        <v>10.63060832429414</v>
+        <v>5.428242780395927</v>
       </c>
       <c r="I22">
-        <v>14.31223334917795</v>
+        <v>5.715189475170671</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.01005291488666</v>
+        <v>23.93030232536068</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.27272226918735</v>
+        <v>8.222669164122962</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.74700701664974</v>
+        <v>27.04989631728367</v>
       </c>
       <c r="C23">
-        <v>11.75746461908303</v>
+        <v>18.55723631636397</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.41990354992348</v>
+        <v>14.7860296893519</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>14.64396295880759</v>
+        <v>13.69972312356883</v>
       </c>
       <c r="H23">
-        <v>10.65434717995178</v>
+        <v>5.466545906079452</v>
       </c>
       <c r="I23">
-        <v>14.36881290226884</v>
+        <v>5.898559542106555</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.85326627897333</v>
+        <v>23.49777154565281</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.31277211496909</v>
+        <v>8.214972423596119</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.68492486652292</v>
+        <v>25.14607215657132</v>
       </c>
       <c r="C24">
-        <v>11.1372679702439</v>
+        <v>17.34323559422529</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.26906506274346</v>
+        <v>13.49101391969145</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>14.77925203091153</v>
+        <v>12.68161572694323</v>
       </c>
       <c r="H24">
-        <v>10.74859821425157</v>
+        <v>5.630121659785485</v>
       </c>
       <c r="I24">
-        <v>14.59081059616832</v>
+        <v>6.604532072287816</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.24762823808107</v>
+        <v>21.79495803540203</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.47389107099682</v>
+        <v>8.241168596190262</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.43732677375843</v>
+        <v>22.9232598479047</v>
       </c>
       <c r="C25">
-        <v>10.4228731318352</v>
+        <v>15.93575214299518</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.12743262474492</v>
+        <v>12.20073692217828</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>14.97155779398275</v>
+        <v>11.86651569539884</v>
       </c>
       <c r="H25">
-        <v>10.85952838282768</v>
+        <v>5.840692610946559</v>
       </c>
       <c r="I25">
-        <v>14.84684584357032</v>
+        <v>7.390307103240097</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.57252858849783</v>
+        <v>19.81760726328179</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.66762014845584</v>
+        <v>8.3735215496725</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14021622922124</v>
+        <v>13.74003652917776</v>
       </c>
       <c r="C2">
-        <v>14.81647744806161</v>
+        <v>9.122093961013945</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.36943250407478</v>
+        <v>28.48927208396375</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>11.41707606853875</v>
+        <v>16.45413449918724</v>
       </c>
       <c r="H2">
-        <v>6.020440015179277</v>
+        <v>2.667874266831229</v>
       </c>
       <c r="I2">
-        <v>7.990330019286897</v>
+        <v>2.526697921355861</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.984692834201527</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.14102291611207</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.23854869145542</v>
+        <v>12.64359917426492</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.545939695046483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.17444244506597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84052305865145</v>
+        <v>12.90536498320879</v>
       </c>
       <c r="C3">
-        <v>14.00742868641755</v>
+        <v>8.728172332910225</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.81167430430878</v>
+        <v>26.66047009577431</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>11.20461327936299</v>
+        <v>16.57862751530768</v>
       </c>
       <c r="H3">
-        <v>6.155719979300586</v>
+        <v>2.458179772839859</v>
       </c>
       <c r="I3">
-        <v>8.41087570574633</v>
+        <v>2.536122238740226</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.07932477762272</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.36172031115976</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.09080970890911</v>
+        <v>11.99089173367194</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.702391222215194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.32333004859423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.99765151110427</v>
+        <v>12.3625684506745</v>
       </c>
       <c r="C4">
-        <v>13.48639118238732</v>
+        <v>8.48025257495561</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.47318927252942</v>
+        <v>25.47311113624184</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>11.11772933914139</v>
+        <v>16.66747546935409</v>
       </c>
       <c r="H4">
-        <v>6.244873661403029</v>
+        <v>2.324790324555731</v>
       </c>
       <c r="I4">
-        <v>8.676151700840117</v>
+        <v>2.613476732106522</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.139605067867945</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.50040407293322</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.34768785518528</v>
+        <v>11.57147890068724</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.815739170111851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.41981363498336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64294941515305</v>
+        <v>12.13135652444235</v>
       </c>
       <c r="C5">
-        <v>13.26808475698517</v>
+        <v>8.386361425698761</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.3364643471756</v>
+        <v>24.97288260032665</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>11.0928633525925</v>
+        <v>16.69507338686535</v>
       </c>
       <c r="H5">
-        <v>6.282663165855988</v>
+        <v>2.269137617305565</v>
       </c>
       <c r="I5">
-        <v>8.78605924406968</v>
+        <v>2.648950437734209</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.163005154172232</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.5544618322349</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.03520153021263</v>
+        <v>11.39781507204799</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.865960184281585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.45596505697915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.58337552716072</v>
+        <v>12.08952082421563</v>
       </c>
       <c r="C6">
-        <v>13.23147826808993</v>
+        <v>8.381194695230237</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.31384091215162</v>
+        <v>24.88864508844637</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>11.08935640563765</v>
+        <v>16.68573728666809</v>
       </c>
       <c r="H6">
-        <v>6.289024198775303</v>
+        <v>2.25968631525285</v>
       </c>
       <c r="I6">
-        <v>8.804419255181418</v>
+        <v>2.658879084111916</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.164843375897915</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.55951739185209</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.98273040950107</v>
+        <v>11.3709374306422</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.874533943290443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.45667839498205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.99291323453556</v>
+        <v>12.35150470272936</v>
       </c>
       <c r="C7">
-        <v>13.48347104799439</v>
+        <v>8.507310785154544</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.47134015888921</v>
+        <v>25.46591021341837</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>11.11735195285942</v>
+        <v>16.6293106490429</v>
       </c>
       <c r="H7">
-        <v>6.245377488547481</v>
+        <v>2.323674828027012</v>
       </c>
       <c r="I7">
-        <v>8.677626601456339</v>
+        <v>2.62448746406998</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.134248548708408</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.49030003959471</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.34351264926866</v>
+        <v>11.57515905619491</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.816400550633306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.40564743298871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.70141625188301</v>
+        <v>13.44877160672599</v>
       </c>
       <c r="C8">
-        <v>14.54262270720646</v>
+        <v>9.023388024150155</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.17640989840778</v>
+        <v>27.87145395426975</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>11.33456644060851</v>
+        <v>16.44331384132498</v>
       </c>
       <c r="H8">
-        <v>6.065773820149021</v>
+        <v>2.596070179103086</v>
       </c>
       <c r="I8">
-        <v>8.13388695182641</v>
+        <v>2.490167353697206</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.009404454377114</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.20222405697521</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.85077355644897</v>
+        <v>12.43002036454493</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.596100419554622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.20530630948749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.69472585694839</v>
+        <v>15.37160083038145</v>
       </c>
       <c r="C9">
-        <v>16.42287037255367</v>
+        <v>9.936753616696157</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.58273301471327</v>
+        <v>32.07887148451594</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>12.1176999288972</v>
+        <v>16.25537449838849</v>
       </c>
       <c r="H9">
-        <v>5.765638147480597</v>
+        <v>3.094799313954442</v>
       </c>
       <c r="I9">
-        <v>7.122341184378183</v>
+        <v>2.769936595992419</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.792385195367138</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.68151633487058</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.50268043007019</v>
+        <v>13.94445694920957</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8.316317700104326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.88135187255957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.67607346480105</v>
+        <v>16.63500981036407</v>
       </c>
       <c r="C10">
-        <v>17.68049106884958</v>
+        <v>10.55998857932215</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.8472457735387</v>
+        <v>33.98344691153133</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>12.91670215212404</v>
+        <v>15.98923312904326</v>
       </c>
       <c r="H10">
-        <v>5.58279492667182</v>
+        <v>3.406431557897848</v>
       </c>
       <c r="I10">
-        <v>6.411011251708247</v>
+        <v>2.964110354539602</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.617136921140573</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.27649377722769</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.26808512277244</v>
+        <v>14.95489692122169</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.225189849171608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.59755739681605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.53040930116762</v>
+        <v>17.18730745577881</v>
       </c>
       <c r="C11">
-        <v>18.22530079367145</v>
+        <v>10.66008702047565</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.42840976209055</v>
+        <v>27.31868581465669</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>13.36867331050548</v>
+        <v>14.24292722703662</v>
       </c>
       <c r="H11">
-        <v>5.509334890488446</v>
+        <v>3.852806071279</v>
       </c>
       <c r="I11">
-        <v>6.094149434466662</v>
+        <v>3.013549254151096</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.327520907568089</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.83506210977795</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.03221084102075</v>
+        <v>15.33525955362313</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8.21336208907281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.88431267882239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.84720207319953</v>
+        <v>17.40911443564859</v>
       </c>
       <c r="C12">
-        <v>18.42766440711429</v>
+        <v>10.58482201106445</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.64610853076418</v>
+        <v>21.28574046081199</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>13.56911427933773</v>
+        <v>12.94328110736068</v>
       </c>
       <c r="H12">
-        <v>5.483062419491203</v>
+        <v>4.79404993832384</v>
       </c>
       <c r="I12">
-        <v>5.975134478243771</v>
+        <v>3.015722662019182</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.139904936952099</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.60749854784125</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.31603270038177</v>
+        <v>15.44591542965801</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.213530761757413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.39709592523383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.7792736088469</v>
+        <v>17.38801797466737</v>
       </c>
       <c r="C13">
-        <v>18.38425738061534</v>
+        <v>10.40524119097088</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.59932734116976</v>
+        <v>15.20917827775905</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>13.52575411495066</v>
+        <v>11.88626868950176</v>
       </c>
       <c r="H13">
-        <v>5.488649410106999</v>
+        <v>5.930010906272035</v>
       </c>
       <c r="I13">
-        <v>6.00072283668197</v>
+        <v>2.986325680835997</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.012255002777483</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.51494760432391</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.25515163086728</v>
+        <v>15.36644706415252</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.213281741356518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.04063220075937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.55660661271924</v>
+        <v>17.26158582480059</v>
       </c>
       <c r="C14">
-        <v>18.24202848436391</v>
+        <v>10.23882451733313</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.44636703919577</v>
+        <v>10.91885747803555</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>13.38507692111311</v>
+        <v>11.29502861522579</v>
       </c>
       <c r="H14">
-        <v>5.507141563603251</v>
+        <v>6.794003537665355</v>
       </c>
       <c r="I14">
-        <v>6.084338374287909</v>
+        <v>2.953239364153816</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.951925474667315</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.51615994856258</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.05567156776631</v>
+        <v>15.22580976198478</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>8.21328066004542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.859357001008037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.41934185869721</v>
+        <v>17.17553312609717</v>
       </c>
       <c r="C15">
-        <v>18.15439517091755</v>
+        <v>10.18418745642547</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.352367851744</v>
+        <v>9.864917784338454</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>13.29947435177451</v>
+        <v>11.19158723094982</v>
       </c>
       <c r="H15">
-        <v>5.518674449371719</v>
+        <v>6.993109811019884</v>
       </c>
       <c r="I15">
-        <v>6.135682664126574</v>
+        <v>2.939285240379126</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.947451484779823</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.53843792154801</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.93276547376073</v>
+        <v>15.15189383508507</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.213896479019676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.836491703511774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.61929752389651</v>
+        <v>16.66019141385143</v>
       </c>
       <c r="C16">
-        <v>17.64433536615947</v>
+        <v>9.968055041247286</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.80892802879092</v>
+        <v>9.79488476573607</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>12.89078523968053</v>
+        <v>11.54131164862746</v>
       </c>
       <c r="H16">
-        <v>5.587803519421056</v>
+        <v>6.727099294933985</v>
       </c>
       <c r="I16">
-        <v>6.431854373565549</v>
+        <v>2.865236461595024</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.04668819093283</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.72166775667996</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.2173691613333</v>
+        <v>14.75153701073896</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.22659241767227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.03331113447642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.1164803717278</v>
+        <v>16.32583281815514</v>
       </c>
       <c r="C17">
-        <v>17.32442273748828</v>
+        <v>9.892000666026989</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.47122059917892</v>
+        <v>12.10299992452251</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>12.66894426945456</v>
+        <v>12.09108469307951</v>
       </c>
       <c r="H17">
-        <v>5.632800828120319</v>
+        <v>6.014570359084164</v>
       </c>
       <c r="I17">
-        <v>6.615267558004902</v>
+        <v>2.825734391915975</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.15316982407627</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.85885882937867</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.76856158993818</v>
+        <v>14.51637160681632</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.242248754814792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.27280584211237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.82284786978485</v>
+        <v>16.1233989931808</v>
       </c>
       <c r="C18">
-        <v>17.137849281367</v>
+        <v>9.912729811948308</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.27536568838611</v>
+        <v>16.88247983788385</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>12.54583192069018</v>
+        <v>12.96964796061657</v>
       </c>
       <c r="H18">
-        <v>5.659586801961351</v>
+        <v>4.907178915666534</v>
       </c>
       <c r="I18">
-        <v>6.721393718427733</v>
+        <v>2.810285655388253</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.288192714711646</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.99781981355861</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.50674709129816</v>
+        <v>14.39922557470375</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.254019797236243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.60794480275697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.72266809238926</v>
+        <v>16.03503011325222</v>
       </c>
       <c r="C19">
-        <v>17.07423844577521</v>
+        <v>10.06146367789395</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.20877312197339</v>
+        <v>23.28469573836349</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>12.50492376851162</v>
+        <v>14.09722238264944</v>
       </c>
       <c r="H19">
-        <v>5.668807207898769</v>
+        <v>3.794629144650882</v>
       </c>
       <c r="I19">
-        <v>6.757434822601563</v>
+        <v>2.828638486964614</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.440101260367015</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.15269177287609</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.4174685875138</v>
+        <v>14.39989995916064</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.258468300635611</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.01245697059256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.17046392887166</v>
+        <v>16.29399990506485</v>
       </c>
       <c r="C20">
-        <v>17.35874396361092</v>
+        <v>10.47293899963605</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.50733670053235</v>
+        <v>33.45443903133653</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>12.69209678201504</v>
+        <v>15.92661740460315</v>
       </c>
       <c r="H20">
-        <v>5.627916132207987</v>
+        <v>3.322462237455944</v>
       </c>
       <c r="I20">
-        <v>6.59567754254681</v>
+        <v>2.924116018375954</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.644010481901518</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.3478717568716</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.81671752796169</v>
+        <v>14.71146546839329</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.240292995915178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.62165852013823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.6221915433656</v>
+        <v>17.21870202979526</v>
       </c>
       <c r="C21">
-        <v>18.2839116962121</v>
+        <v>10.95986348993205</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.49135890632397</v>
+        <v>36.18797413945894</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>13.42627976270634</v>
+        <v>16.06723376197717</v>
       </c>
       <c r="H21">
-        <v>5.501666771792173</v>
+        <v>3.608947724667916</v>
       </c>
       <c r="I21">
-        <v>6.059751879690099</v>
+        <v>3.076930348255384</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.55508702223444</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.0981924836311</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.11441336132782</v>
+        <v>15.46386850275787</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.213151836601122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.5296055984603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.53179807927158</v>
+        <v>17.80451512034231</v>
       </c>
       <c r="C22">
-        <v>18.86557271013984</v>
+        <v>11.2289543366219</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.12068033068089</v>
+        <v>37.46522922741039</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>14.01752644636753</v>
+        <v>16.1313261384784</v>
       </c>
       <c r="H22">
-        <v>5.428242780395927</v>
+        <v>3.775093129658516</v>
       </c>
       <c r="I22">
-        <v>5.715189475170671</v>
+        <v>3.168661992699832</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.494205872901811</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.93559373269837</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.93030232536068</v>
+        <v>15.92722942426164</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.222669164122962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.4608343687053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.04989631728367</v>
+        <v>17.50120203295552</v>
       </c>
       <c r="C23">
-        <v>18.55723631636397</v>
+        <v>11.05872654459888</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.7860296893519</v>
+        <v>36.78898556263417</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>13.69972312356883</v>
+        <v>16.1402188230111</v>
       </c>
       <c r="H23">
-        <v>5.466545906079452</v>
+        <v>3.687047207728915</v>
       </c>
       <c r="I23">
-        <v>5.898559542106555</v>
+        <v>3.11573119871038</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.533087245738618</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.03473541738746</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.49777154565281</v>
+        <v>15.67598423374828</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.214972423596119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.51427330204408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.14607215657132</v>
+        <v>16.28806586695831</v>
       </c>
       <c r="C24">
-        <v>17.34323559422529</v>
+        <v>10.44143371240857</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.49101391969145</v>
+        <v>34.11629462369108</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>12.68161572694323</v>
+        <v>16.14189238636772</v>
       </c>
       <c r="H24">
-        <v>5.630121659785485</v>
+        <v>3.346187466508796</v>
       </c>
       <c r="I24">
-        <v>6.604532072287816</v>
+        <v>2.918846835631508</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.67494156107732</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.3961532246495</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.79495803540203</v>
+        <v>14.69623966025981</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.241168596190262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.70350335242763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9232598479047</v>
+        <v>14.86530992705556</v>
       </c>
       <c r="C25">
-        <v>15.93575214299518</v>
+        <v>9.741521757343993</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.20073692217828</v>
+        <v>30.99438201466411</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>11.86651569539884</v>
+        <v>16.22377840167814</v>
       </c>
       <c r="H25">
-        <v>5.840692610946559</v>
+        <v>2.96306610457285</v>
       </c>
       <c r="I25">
-        <v>7.390307103240097</v>
+        <v>2.701204734728704</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.838989716629663</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.80045559396268</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.81760726328179</v>
+        <v>13.561102117873</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>8.3735215496725</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.93753977334433</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.74003652917776</v>
+        <v>13.75662916287494</v>
       </c>
       <c r="C2">
-        <v>9.122093961013945</v>
+        <v>9.042119342462824</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>28.48927208396375</v>
+        <v>28.50684729189204</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>16.45413449918724</v>
+        <v>15.40222627682246</v>
       </c>
       <c r="H2">
-        <v>2.667874266831229</v>
+        <v>2.680730626718521</v>
       </c>
       <c r="I2">
-        <v>2.526697921355861</v>
+        <v>2.594706253465019</v>
       </c>
       <c r="J2">
-        <v>7.984692834201527</v>
+        <v>8.389531766300967</v>
       </c>
       <c r="K2">
-        <v>12.14102291611207</v>
+        <v>11.92521125645759</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.47670265672112</v>
       </c>
       <c r="M2">
-        <v>12.64359917426492</v>
+        <v>7.121106390031254</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.66507708642905</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.17444244506597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.03953601178247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.90536498320879</v>
+        <v>12.94509199399647</v>
       </c>
       <c r="C3">
-        <v>8.728172332910225</v>
+        <v>8.57190558161215</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.66047009577431</v>
+        <v>26.68498975279637</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>16.57862751530768</v>
+        <v>15.59385769876658</v>
       </c>
       <c r="H3">
-        <v>2.458179772839859</v>
+        <v>2.475790916793861</v>
       </c>
       <c r="I3">
-        <v>2.536122238740226</v>
+        <v>2.49074816936866</v>
       </c>
       <c r="J3">
-        <v>8.07932477762272</v>
+        <v>8.456251753788123</v>
       </c>
       <c r="K3">
-        <v>12.36172031115976</v>
+        <v>12.14031134510957</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.66284559898019</v>
       </c>
       <c r="M3">
-        <v>11.99089173367194</v>
+        <v>7.30909457734797</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.00355669071054</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.32333004859423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.19735884596778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.3625684506745</v>
+        <v>12.41766937802375</v>
       </c>
       <c r="C4">
-        <v>8.48025257495561</v>
+        <v>8.274974825221523</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.47311113624184</v>
+        <v>25.50221151269755</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>16.66747546935409</v>
+        <v>15.72392087178368</v>
       </c>
       <c r="H4">
-        <v>2.324790324555731</v>
+        <v>2.345393645598361</v>
       </c>
       <c r="I4">
-        <v>2.613476732106522</v>
+        <v>2.525531453044437</v>
       </c>
       <c r="J4">
-        <v>8.139605067867945</v>
+        <v>8.498219348927453</v>
       </c>
       <c r="K4">
-        <v>12.50040407293322</v>
+        <v>12.27489848693178</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.78419527987437</v>
       </c>
       <c r="M4">
-        <v>11.57147890068724</v>
+        <v>7.439038304673494</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.57857596924378</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.41981363498336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.29823117046264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.13135652444235</v>
+        <v>12.1931022589354</v>
       </c>
       <c r="C5">
-        <v>8.386361425698761</v>
+        <v>8.160713614896236</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.97288260032665</v>
+        <v>25.00394314600125</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>16.69507338686535</v>
+        <v>15.76824940297112</v>
       </c>
       <c r="H5">
-        <v>2.269137617305565</v>
+        <v>2.290982972982602</v>
       </c>
       <c r="I5">
-        <v>2.648950437734209</v>
+        <v>2.557977434301136</v>
       </c>
       <c r="J5">
-        <v>8.163005154172232</v>
+        <v>8.513896682342816</v>
       </c>
       <c r="K5">
-        <v>12.5544618322349</v>
+        <v>12.3272190253317</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.83160816909654</v>
       </c>
       <c r="M5">
-        <v>11.39781507204799</v>
+        <v>7.494837809367633</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.40256832898487</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.45596505697915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.3360164202751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.08952082421563</v>
+        <v>12.15247957402322</v>
       </c>
       <c r="C6">
-        <v>8.381194695230237</v>
+        <v>8.152265876876337</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.88864508844637</v>
+        <v>24.92004146600136</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>16.68573728666809</v>
+        <v>15.76166310452514</v>
       </c>
       <c r="H6">
-        <v>2.25968631525285</v>
+        <v>2.281743438282689</v>
       </c>
       <c r="I6">
-        <v>2.658879084111916</v>
+        <v>2.568132393073058</v>
       </c>
       <c r="J6">
-        <v>8.164843375897915</v>
+        <v>8.514469634502293</v>
       </c>
       <c r="K6">
-        <v>12.55951739185209</v>
+        <v>12.33209170722162</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.83497538092229</v>
       </c>
       <c r="M6">
-        <v>11.3709374306422</v>
+        <v>7.503461217760049</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.37524321695562</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.45667839498205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.33711964492135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.35150470272936</v>
+        <v>12.40775085368878</v>
       </c>
       <c r="C7">
-        <v>8.507310785154544</v>
+        <v>8.297273213324363</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.46591021341837</v>
+        <v>25.49459460262151</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>16.6293106490429</v>
+        <v>15.74269540676404</v>
       </c>
       <c r="H7">
-        <v>2.323674828027012</v>
+        <v>2.343985740720069</v>
       </c>
       <c r="I7">
-        <v>2.62448746406998</v>
+        <v>2.538891123420979</v>
       </c>
       <c r="J7">
-        <v>8.134248548708408</v>
+        <v>8.469739950542394</v>
       </c>
       <c r="K7">
-        <v>12.49030003959471</v>
+        <v>12.26123687476978</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.76819184876686</v>
       </c>
       <c r="M7">
-        <v>11.57515905619491</v>
+        <v>7.435844506382056</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.58075089121502</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.40564743298871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.27649945540505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.44877160672599</v>
+        <v>13.47595505161049</v>
       </c>
       <c r="C8">
-        <v>9.023388024150155</v>
+        <v>8.902796236204011</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>27.87145395426975</v>
+        <v>27.89002593332173</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>16.44331384132498</v>
+        <v>15.60701542437021</v>
       </c>
       <c r="H8">
-        <v>2.596070179103086</v>
+        <v>2.609582929492205</v>
       </c>
       <c r="I8">
-        <v>2.490167353697206</v>
+        <v>2.562407141390902</v>
       </c>
       <c r="J8">
-        <v>8.009404454377114</v>
+        <v>8.330800318679509</v>
       </c>
       <c r="K8">
-        <v>12.20222405697521</v>
+        <v>11.9729418459388</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.51308657779062</v>
       </c>
       <c r="M8">
-        <v>12.43002036454493</v>
+        <v>7.170753219187227</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.44424904907029</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.20530630948749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.04806022265597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.37160083038145</v>
+        <v>15.3472231945819</v>
       </c>
       <c r="C9">
-        <v>9.936753616696157</v>
+        <v>9.990370289618321</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>32.07887148451594</v>
+        <v>32.08134713796033</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>16.25537449838849</v>
+        <v>15.31088309914482</v>
       </c>
       <c r="H9">
-        <v>3.094799313954442</v>
+        <v>3.096655879095976</v>
       </c>
       <c r="I9">
-        <v>2.769936595992419</v>
+        <v>2.80990993333525</v>
       </c>
       <c r="J9">
-        <v>7.792385195367138</v>
+        <v>8.155841156203584</v>
       </c>
       <c r="K9">
-        <v>11.68151633487058</v>
+        <v>11.45897758827357</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.10398667881699</v>
       </c>
       <c r="M9">
-        <v>13.94445694920957</v>
+        <v>6.783704609591022</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.97906048311518</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.88135187255957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.68735484795077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.63500981036407</v>
+        <v>16.58420599970658</v>
       </c>
       <c r="C10">
-        <v>10.55998857932215</v>
+        <v>10.69575849840778</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>33.98344691153133</v>
+        <v>33.97342178406878</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>15.98923312904326</v>
+        <v>15.33134383978587</v>
       </c>
       <c r="H10">
-        <v>3.406431557897848</v>
+        <v>3.398850793182061</v>
       </c>
       <c r="I10">
-        <v>2.964110354539602</v>
+        <v>2.981147510063026</v>
       </c>
       <c r="J10">
-        <v>7.617136921140573</v>
+        <v>7.893277022920245</v>
       </c>
       <c r="K10">
-        <v>11.27649377722769</v>
+        <v>11.04347427038786</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.808438408354178</v>
       </c>
       <c r="M10">
-        <v>14.95489692122169</v>
+        <v>6.531201746186091</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.99516692809884</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.59755739681605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.33320385879818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.18730745577881</v>
+        <v>17.15499140384394</v>
       </c>
       <c r="C11">
-        <v>10.66008702047565</v>
+        <v>10.701878394545</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.31868581465669</v>
+        <v>27.30256926191172</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>14.24292722703662</v>
+        <v>14.35258916853499</v>
       </c>
       <c r="H11">
-        <v>3.852806071279</v>
+        <v>3.842760006934829</v>
       </c>
       <c r="I11">
-        <v>3.013549254151096</v>
+        <v>3.024073987261802</v>
       </c>
       <c r="J11">
-        <v>7.327520907568089</v>
+        <v>7.523258012853566</v>
       </c>
       <c r="K11">
-        <v>10.83506210977795</v>
+        <v>10.64637743147251</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.571764571373247</v>
       </c>
       <c r="M11">
-        <v>15.33525955362313</v>
+        <v>6.189563390565376</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.35098547691792</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10.88431267882239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.60237090940627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.40911443564859</v>
+        <v>17.39500303843357</v>
       </c>
       <c r="C12">
-        <v>10.58482201106445</v>
+        <v>10.544497168887</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.28574046081199</v>
+        <v>21.26703941914494</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>12.94328110736068</v>
+        <v>13.3481404432526</v>
       </c>
       <c r="H12">
-        <v>4.79404993832384</v>
+        <v>4.785600073920157</v>
       </c>
       <c r="I12">
-        <v>3.015722662019182</v>
+        <v>3.024300858297493</v>
       </c>
       <c r="J12">
-        <v>7.139904936952099</v>
+        <v>7.407438564110025</v>
       </c>
       <c r="K12">
-        <v>10.60749854784125</v>
+        <v>10.4705615139687</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.490797724308566</v>
       </c>
       <c r="M12">
-        <v>15.44591542965801</v>
+        <v>6.001364519741634</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.44305200034361</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.39709592523383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.15166605976823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.38801797466737</v>
+        <v>17.39178097197319</v>
       </c>
       <c r="C13">
-        <v>10.40524119097088</v>
+        <v>10.29506075477026</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.20917827775905</v>
+        <v>15.19049927948605</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>11.88626868950176</v>
+        <v>12.09622920353797</v>
       </c>
       <c r="H13">
-        <v>5.930010906272035</v>
+        <v>5.924300276008807</v>
       </c>
       <c r="I13">
-        <v>2.986325680835997</v>
+        <v>2.998470767269155</v>
       </c>
       <c r="J13">
-        <v>7.012255002777483</v>
+        <v>7.392421600755237</v>
       </c>
       <c r="K13">
-        <v>10.51494760432391</v>
+        <v>10.42745828723458</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.481240895828664</v>
       </c>
       <c r="M13">
-        <v>15.36644706415252</v>
+        <v>5.922458459569309</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.35019275779229</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.04063220075937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.875112813709565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.26158582480059</v>
+        <v>17.27798956735523</v>
       </c>
       <c r="C14">
-        <v>10.23882451733313</v>
+        <v>10.08419696971892</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.91885747803555</v>
+        <v>10.90101707953265</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>11.29502861522579</v>
+        <v>11.18037774329761</v>
       </c>
       <c r="H14">
-        <v>6.794003537665355</v>
+        <v>6.790148566985767</v>
       </c>
       <c r="I14">
-        <v>2.953239364153816</v>
+        <v>2.970595667477013</v>
       </c>
       <c r="J14">
-        <v>6.951925474667315</v>
+        <v>7.400050593498032</v>
       </c>
       <c r="K14">
-        <v>10.51615994856258</v>
+        <v>10.45248315584485</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.497172064513517</v>
       </c>
       <c r="M14">
-        <v>15.22580976198478</v>
+        <v>5.922663115305247</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.20220472643275</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9.859357001008037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.756897259686591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.17553312609717</v>
+        <v>17.19522209506161</v>
       </c>
       <c r="C15">
-        <v>10.18418745642547</v>
+        <v>10.02026707261258</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.864917784338454</v>
+        <v>9.848309892002979</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>11.19158723094982</v>
+        <v>10.93636683798742</v>
       </c>
       <c r="H15">
-        <v>6.993109811019884</v>
+        <v>6.989872822670836</v>
       </c>
       <c r="I15">
-        <v>2.939285240379126</v>
+        <v>2.959633845072666</v>
       </c>
       <c r="J15">
-        <v>6.947451484779823</v>
+        <v>7.408922321931249</v>
       </c>
       <c r="K15">
-        <v>10.53843792154801</v>
+        <v>10.47744027519015</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.506792275371735</v>
       </c>
       <c r="M15">
-        <v>15.15189383508507</v>
+        <v>5.942406571825311</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.1274068981318</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9.836491703511774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.75279063602467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.66019141385143</v>
+        <v>16.68205294728114</v>
       </c>
       <c r="C16">
-        <v>9.968055041247286</v>
+        <v>9.815356683583401</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.79488476573607</v>
+        <v>9.789744176933334</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>11.54131164862746</v>
+        <v>10.83785339573655</v>
       </c>
       <c r="H16">
-        <v>6.727099294933985</v>
+        <v>6.726112935129342</v>
       </c>
       <c r="I16">
-        <v>2.865236461595024</v>
+        <v>2.897990206351213</v>
       </c>
       <c r="J16">
-        <v>7.04668819093283</v>
+        <v>7.520352550883426</v>
       </c>
       <c r="K16">
-        <v>10.72166775667996</v>
+        <v>10.64373947690401</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.55984867023702</v>
       </c>
       <c r="M16">
-        <v>14.75153701073896</v>
+        <v>6.110578746678845</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.73539950556956</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.03331113447642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.986650397236851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.32583281815514</v>
+        <v>16.34357623018952</v>
       </c>
       <c r="C17">
-        <v>9.892000666026989</v>
+        <v>9.766455250276488</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.10299992452251</v>
+        <v>12.10361839893889</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>12.09108469307951</v>
+        <v>11.23335906758225</v>
       </c>
       <c r="H17">
-        <v>6.014570359084164</v>
+        <v>6.01471809903023</v>
       </c>
       <c r="I17">
-        <v>2.825734391915975</v>
+        <v>2.864963790985765</v>
       </c>
       <c r="J17">
-        <v>7.15316982407627</v>
+        <v>7.636477453229933</v>
       </c>
       <c r="K17">
-        <v>10.85885882937867</v>
+        <v>10.76586191113488</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.611220964023538</v>
       </c>
       <c r="M17">
-        <v>14.51637160681632</v>
+        <v>6.231336301796367</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.50929471036156</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.27280584211237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.22821227879133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.1233989931808</v>
+        <v>16.12914728333234</v>
       </c>
       <c r="C18">
-        <v>9.912729811948308</v>
+        <v>9.840447888023938</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.88247983788385</v>
+        <v>16.88450668105197</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>12.96964796061657</v>
+        <v>12.03041721860914</v>
       </c>
       <c r="H18">
-        <v>4.907178915666534</v>
+        <v>4.907891644183762</v>
       </c>
       <c r="I18">
-        <v>2.810285655388253</v>
+        <v>2.850618172993917</v>
       </c>
       <c r="J18">
-        <v>7.288192714711646</v>
+        <v>7.768460180923306</v>
       </c>
       <c r="K18">
-        <v>10.99781981355861</v>
+        <v>10.88542999016334</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.681869424478478</v>
       </c>
       <c r="M18">
-        <v>14.39922557470375</v>
+        <v>6.339195742076717</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.4048966115688</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.60794480275697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.54270971325009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.03503011325222</v>
+        <v>16.02293557411863</v>
       </c>
       <c r="C19">
-        <v>10.06146367789395</v>
+        <v>10.06303967667758</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.28469573836349</v>
+        <v>23.28566962376743</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>14.09722238264944</v>
+        <v>13.09040450813739</v>
       </c>
       <c r="H19">
-        <v>3.794629144650882</v>
+        <v>3.795153956087106</v>
       </c>
       <c r="I19">
-        <v>2.828638486964614</v>
+        <v>2.867842185116251</v>
       </c>
       <c r="J19">
-        <v>7.440101260367015</v>
+        <v>7.905566431477681</v>
       </c>
       <c r="K19">
-        <v>11.15269177287609</v>
+        <v>11.01099564833371</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.77190306008958</v>
       </c>
       <c r="M19">
-        <v>14.39989995916064</v>
+        <v>6.446257592751008</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.42063732331335</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.01245697059256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.90716256852002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.29399990506485</v>
+        <v>16.24816356042151</v>
       </c>
       <c r="C20">
-        <v>10.47293899963605</v>
+        <v>10.6019115653238</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>33.45443903133653</v>
+        <v>33.4488740876469</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>15.92661740460315</v>
+        <v>14.97642673740564</v>
       </c>
       <c r="H20">
-        <v>3.322462237455944</v>
+        <v>3.318260860501842</v>
       </c>
       <c r="I20">
-        <v>2.924116018375954</v>
+        <v>2.951749421330953</v>
       </c>
       <c r="J20">
-        <v>7.644010481901518</v>
+        <v>8.017426335398154</v>
       </c>
       <c r="K20">
-        <v>11.3478717568716</v>
+        <v>11.1348093953825</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.870676231129821</v>
       </c>
       <c r="M20">
-        <v>14.71146546839329</v>
+        <v>6.577797790861852</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.7535048435301</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.62165852013823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.40781129543769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.21870202979526</v>
+        <v>17.16203060883235</v>
       </c>
       <c r="C21">
-        <v>10.95986348993205</v>
+        <v>11.09172523545847</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>36.18797413945894</v>
+        <v>36.16691083517772</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>16.06723376197717</v>
+        <v>16.51643277318707</v>
       </c>
       <c r="H21">
-        <v>3.608947724667916</v>
+        <v>3.592912840949408</v>
       </c>
       <c r="I21">
-        <v>3.076930348255384</v>
+        <v>3.079871022774518</v>
       </c>
       <c r="J21">
-        <v>7.55508702223444</v>
+        <v>7.552884256706467</v>
       </c>
       <c r="K21">
-        <v>11.0981924836311</v>
+        <v>10.79985804688285</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.656320509105175</v>
       </c>
       <c r="M21">
-        <v>15.46386850275787</v>
+        <v>6.37820910647123</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.49458632271842</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.5296055984603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.09515146113584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.80451512034231</v>
+        <v>17.74341056088804</v>
       </c>
       <c r="C22">
-        <v>11.2289543366219</v>
+        <v>11.35252847572708</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>37.46522922741039</v>
+        <v>37.43449504111863</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>16.1313261384784</v>
+        <v>17.65288668597061</v>
       </c>
       <c r="H22">
-        <v>3.775093129658516</v>
+        <v>3.751643619369994</v>
       </c>
       <c r="I22">
-        <v>3.168661992699832</v>
+        <v>3.154874179576383</v>
       </c>
       <c r="J22">
-        <v>7.494205872901811</v>
+        <v>7.339075526836153</v>
       </c>
       <c r="K22">
-        <v>10.93559373269837</v>
+        <v>10.57749294552147</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.527588480669463</v>
       </c>
       <c r="M22">
-        <v>15.92722942426164</v>
+        <v>6.24975149670714</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.94905568595692</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.4608343687053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.86889889614252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.50120203295552</v>
+        <v>17.44045632269625</v>
       </c>
       <c r="C23">
-        <v>11.05872654459888</v>
+        <v>11.19663183221388</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>36.78898556263417</v>
+        <v>36.7640311533853</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>16.1402188230111</v>
+        <v>16.91427327896992</v>
       </c>
       <c r="H23">
-        <v>3.687047207728915</v>
+        <v>3.668030587078417</v>
       </c>
       <c r="I23">
-        <v>3.11573119871038</v>
+        <v>3.110188723763032</v>
       </c>
       <c r="J23">
-        <v>7.533087245738618</v>
+        <v>7.468072357517817</v>
       </c>
       <c r="K23">
-        <v>11.03473541738746</v>
+        <v>10.71433008373393</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.604048894832381</v>
       </c>
       <c r="M23">
-        <v>15.67598423374828</v>
+        <v>6.338594774824401</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.70511312045889</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.51427330204408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.02582834038831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.28806586695831</v>
+        <v>16.24006871684933</v>
       </c>
       <c r="C24">
-        <v>10.44143371240857</v>
+        <v>10.57792290407969</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>34.11629462369108</v>
+        <v>34.11064008986073</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>16.14189238636772</v>
+        <v>15.17301266435733</v>
       </c>
       <c r="H24">
-        <v>3.346187466508796</v>
+        <v>3.341909825953075</v>
       </c>
       <c r="I24">
-        <v>2.918846835631508</v>
+        <v>2.944181053227578</v>
       </c>
       <c r="J24">
-        <v>7.67494156107732</v>
+        <v>8.046945833722152</v>
       </c>
       <c r="K24">
-        <v>11.3961532246495</v>
+        <v>11.17530415425685</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.898469664675019</v>
       </c>
       <c r="M24">
-        <v>14.69623966025981</v>
+        <v>6.613713012376543</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.74006154250098</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.70350335242763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.48319073595218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.86530992705556</v>
+        <v>14.8533337674576</v>
       </c>
       <c r="C25">
-        <v>9.741521757343993</v>
+        <v>9.756573253501475</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>30.99438201466411</v>
+        <v>31.00158258895405</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>16.22377840167814</v>
+        <v>15.22385671363769</v>
       </c>
       <c r="H25">
-        <v>2.96306610457285</v>
+        <v>2.968434145944504</v>
       </c>
       <c r="I25">
-        <v>2.701204734728704</v>
+        <v>2.75196563874188</v>
       </c>
       <c r="J25">
-        <v>7.838989716629663</v>
+        <v>8.224313359636517</v>
       </c>
       <c r="K25">
-        <v>11.80045559396268</v>
+        <v>11.58395813715203</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.19854385302246</v>
       </c>
       <c r="M25">
-        <v>13.561102117873</v>
+        <v>6.866038654950755</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.59177820605119</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.93753977334433</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.76738254051926</v>
       </c>
     </row>
   </sheetData>
